--- a/Jogos_do_Dia/2024-01-28_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-28_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -163,15 +163,15 @@
     <t>France Ligue 1</t>
   </si>
   <si>
+    <t>Germany 2. Bundesliga</t>
+  </si>
+  <si>
+    <t>Spain La Liga</t>
+  </si>
+  <si>
     <t>Belgium Pro League</t>
   </si>
   <si>
-    <t>Germany 2. Bundesliga</t>
-  </si>
-  <si>
-    <t>Spain La Liga</t>
-  </si>
-  <si>
     <t>Spain Segunda División</t>
   </si>
   <si>
@@ -181,12 +181,12 @@
     <t>England Championship</t>
   </si>
   <si>
+    <t>Croatia Prva HNL</t>
+  </si>
+  <si>
     <t>Greece Super League</t>
   </si>
   <si>
-    <t>Croatia Prva HNL</t>
-  </si>
-  <si>
     <t>Germany Bundesliga</t>
   </si>
   <si>
@@ -298,30 +298,30 @@
     <t>Montpellier</t>
   </si>
   <si>
+    <t>Hamburger SV</t>
+  </si>
+  <si>
+    <t>Greuther Fürth</t>
+  </si>
+  <si>
+    <t>Eintracht Braunschweig</t>
+  </si>
+  <si>
+    <t>Paços de Ferreira</t>
+  </si>
+  <si>
+    <t>Fatih Karagümrük</t>
+  </si>
+  <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
+    <t>Celta de Vigo</t>
+  </si>
+  <si>
     <t>Sint-Truiden</t>
   </si>
   <si>
-    <t>Hamburger SV</t>
-  </si>
-  <si>
-    <t>Greuther Fürth</t>
-  </si>
-  <si>
-    <t>Eintracht Braunschweig</t>
-  </si>
-  <si>
-    <t>Paços de Ferreira</t>
-  </si>
-  <si>
-    <t>Sivasspor</t>
-  </si>
-  <si>
-    <t>Fatih Karagümrük</t>
-  </si>
-  <si>
-    <t>Celta de Vigo</t>
-  </si>
-  <si>
     <t>CD Eldense</t>
   </si>
   <si>
@@ -337,30 +337,30 @@
     <t>Queens Park Rangers</t>
   </si>
   <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Gorica</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
     <t>Monza</t>
   </si>
   <si>
-    <t>Hellas Verona</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
     <t>AEK Athens</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Gorica</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
     <t>Union Berlin</t>
   </si>
   <si>
@@ -382,27 +382,27 @@
     <t>Villarreal II</t>
   </si>
   <si>
+    <t>Grasshopper</t>
+  </si>
+  <si>
+    <t>Luzern</t>
+  </si>
+  <si>
+    <t>CD Nacional</t>
+  </si>
+  <si>
+    <t>Porto II</t>
+  </si>
+  <si>
     <t>Asteras Tripolis</t>
   </si>
   <si>
+    <t>Boavista FC</t>
+  </si>
+  <si>
     <t>Moreirense FC</t>
   </si>
   <si>
-    <t>Boavista FC</t>
-  </si>
-  <si>
-    <t>CD Nacional</t>
-  </si>
-  <si>
-    <t>Luzern</t>
-  </si>
-  <si>
-    <t>Grasshopper</t>
-  </si>
-  <si>
-    <t>Porto II</t>
-  </si>
-  <si>
     <t>Volendam</t>
   </si>
   <si>
@@ -421,18 +421,18 @@
     <t>Lazio</t>
   </si>
   <si>
+    <t>Olympiakos Piraeus</t>
+  </si>
+  <si>
+    <t>Burgos CF</t>
+  </si>
+  <si>
     <t>RSC Anderlecht</t>
   </si>
   <si>
     <t>Sevilla FC</t>
   </si>
   <si>
-    <t>Olympiakos Piraeus</t>
-  </si>
-  <si>
-    <t>Burgos CF</t>
-  </si>
-  <si>
     <t>CS U Craiova</t>
   </si>
   <si>
@@ -448,18 +448,18 @@
     <t>PAOK</t>
   </si>
   <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>Fiorentina</t>
+    <t>Atlético Madrid</t>
   </si>
   <si>
     <t>Sporting Gijón</t>
   </si>
   <si>
-    <t>Atlético Madrid</t>
-  </si>
-  <si>
     <t>FC Arouca</t>
   </si>
   <si>
@@ -484,30 +484,30 @@
     <t>Lille</t>
   </si>
   <si>
+    <t>Karlsruher SC</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Magdeburg</t>
+  </si>
+  <si>
+    <t>CD Mafra</t>
+  </si>
+  <si>
+    <t>Rizespor</t>
+  </si>
+  <si>
+    <t>Beşiktaş</t>
+  </si>
+  <si>
+    <t>Girona FC</t>
+  </si>
+  <si>
     <t>KRC Genk</t>
   </si>
   <si>
-    <t>Karlsruher SC</t>
-  </si>
-  <si>
-    <t>Holstein Kiel</t>
-  </si>
-  <si>
-    <t>Magdeburg</t>
-  </si>
-  <si>
-    <t>CD Mafra</t>
-  </si>
-  <si>
-    <t>Beşiktaş</t>
-  </si>
-  <si>
-    <t>Rizespor</t>
-  </si>
-  <si>
-    <t>Girona FC</t>
-  </si>
-  <si>
     <t>RCD Espanyol</t>
   </si>
   <si>
@@ -523,30 +523,30 @@
     <t>Huddersfield Town</t>
   </si>
   <si>
+    <t>Leixões</t>
+  </si>
+  <si>
+    <t>Lokomotiva Zagreb</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
     <t>Sassuolo</t>
   </si>
   <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
     <t>OFI</t>
   </si>
   <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Lokomotiva Zagreb</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Leixões</t>
-  </si>
-  <si>
     <t>Darmstadt 98</t>
   </si>
   <si>
@@ -568,27 +568,27 @@
     <t>SD Huesca</t>
   </si>
   <si>
+    <t>Zürich</t>
+  </si>
+  <si>
+    <t>Lausanne Sport</t>
+  </si>
+  <si>
+    <t>Torreense</t>
+  </si>
+  <si>
+    <t>CF Os Belenenses</t>
+  </si>
+  <si>
     <t>Atromitos</t>
   </si>
   <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
     <t>Famalicão</t>
   </si>
   <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Torreense</t>
-  </si>
-  <si>
-    <t>Lausanne Sport</t>
-  </si>
-  <si>
-    <t>Zürich</t>
-  </si>
-  <si>
-    <t>CF Os Belenenses</t>
-  </si>
-  <si>
     <t>Fortuna Sittard</t>
   </si>
   <si>
@@ -607,18 +607,18 @@
     <t>Napoli</t>
   </si>
   <si>
+    <t>PAS Giannina</t>
+  </si>
+  <si>
+    <t>Albacete Balompié</t>
+  </si>
+  <si>
     <t>Union Saint-Gilloise</t>
   </si>
   <si>
     <t>CA Osasuna</t>
   </si>
   <si>
-    <t>PAS Giannina</t>
-  </si>
-  <si>
-    <t>Albacete Balompié</t>
-  </si>
-  <si>
     <t>FCSB</t>
   </si>
   <si>
@@ -634,16 +634,16 @@
     <t>Panathinaikos</t>
   </si>
   <si>
+    <t>Inter Milan</t>
+  </si>
+  <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>Inter Milan</t>
+    <t>Valencia CF</t>
   </si>
   <si>
     <t>Racing Club de Ferrol</t>
-  </si>
-  <si>
-    <t>Valencia CF</t>
   </si>
   <si>
     <t>FC Vizela</t>
@@ -1177,13 +1177,13 @@
         <v>3.1</v>
       </c>
       <c r="J2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K2">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M2">
         <v>1.39</v>
@@ -1204,10 +1204,10 @@
         <v>3.44</v>
       </c>
       <c r="S2">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="T2">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="U2">
         <v>1.73</v>
@@ -1225,10 +1225,10 @@
         <v>1.49</v>
       </c>
       <c r="Z2">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AA2">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AB2">
         <v>1.39</v>
@@ -1308,13 +1308,13 @@
         <v>3.6</v>
       </c>
       <c r="J3">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="K3">
-        <v>3.06</v>
+        <v>3.25</v>
       </c>
       <c r="L3">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="M3">
         <v>1.47</v>
@@ -1335,10 +1335,10 @@
         <v>2.9</v>
       </c>
       <c r="S3">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="T3">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="U3">
         <v>1.87</v>
@@ -1356,10 +1356,10 @@
         <v>1.5</v>
       </c>
       <c r="Z3">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AA3">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AB3">
         <v>1.68</v>
@@ -1445,7 +1445,7 @@
         <v>3.6</v>
       </c>
       <c r="L4">
-        <v>1.91</v>
+        <v>2.09</v>
       </c>
       <c r="M4">
         <v>1.36</v>
@@ -1466,10 +1466,10 @@
         <v>3.67</v>
       </c>
       <c r="S4">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="T4">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U4">
         <v>1.7</v>
@@ -1487,10 +1487,10 @@
         <v>1.33</v>
       </c>
       <c r="Z4">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AA4">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AB4">
         <v>1.85</v>
@@ -1570,13 +1570,13 @@
         <v>4.75</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="K5">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L5">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="M5">
         <v>1.57</v>
@@ -1591,16 +1591,16 @@
         <v>7.4</v>
       </c>
       <c r="Q5">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R5">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="S5">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="T5">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="U5">
         <v>2.2</v>
@@ -1618,10 +1618,10 @@
         <v>1.79</v>
       </c>
       <c r="Z5">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AA5">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB5">
         <v>1.19</v>
@@ -1701,13 +1701,13 @@
         <v>5.5</v>
       </c>
       <c r="J6">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="K6">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L6">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M6">
         <v>1.47</v>
@@ -1728,10 +1728,10 @@
         <v>2.84</v>
       </c>
       <c r="S6">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="T6">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="U6">
         <v>2.02</v>
@@ -1749,10 +1749,10 @@
         <v>2.06</v>
       </c>
       <c r="Z6">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AA6">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AB6">
         <v>1.59</v>
@@ -1797,10 +1797,10 @@
         <v>1.39</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1832,13 +1832,13 @@
         <v>2.63</v>
       </c>
       <c r="J7">
+        <v>3.7</v>
+      </c>
+      <c r="K7">
         <v>3.6</v>
       </c>
-      <c r="K7">
-        <v>3.5</v>
-      </c>
       <c r="L7">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="M7">
         <v>1.4</v>
@@ -1859,10 +1859,10 @@
         <v>3.3</v>
       </c>
       <c r="S7">
-        <v>1.71</v>
+        <v>1.96</v>
       </c>
       <c r="T7">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="U7">
         <v>1.8</v>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AB7">
         <v>1.58</v>
@@ -1945,7 +1945,7 @@
         <v>65</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>94</v>
@@ -1954,120 +1954,120 @@
         <v>156</v>
       </c>
       <c r="G8">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H8">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="I8">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="J8">
-        <v>3.7</v>
+        <v>1.63</v>
       </c>
       <c r="K8">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="L8">
-        <v>1.83</v>
+        <v>4.5</v>
       </c>
       <c r="M8">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="N8">
-        <v>3.05</v>
+        <v>4.33</v>
       </c>
       <c r="O8">
         <v>1.01</v>
       </c>
       <c r="P8">
-        <v>9.9</v>
+        <v>25</v>
       </c>
       <c r="Q8">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="R8">
-        <v>3.58</v>
+        <v>7</v>
       </c>
       <c r="S8">
-        <v>1.65</v>
+        <v>1.29</v>
       </c>
       <c r="T8">
-        <v>2.03</v>
+        <v>2.97</v>
       </c>
       <c r="U8">
-        <v>1.68</v>
+        <v>1.4</v>
       </c>
       <c r="V8">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="W8">
-        <v>1.8</v>
+        <v>1.16</v>
       </c>
       <c r="X8">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="Y8">
-        <v>1.27</v>
+        <v>2.2</v>
       </c>
       <c r="Z8">
-        <v>1.5</v>
+        <v>2.33</v>
       </c>
       <c r="AA8">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1.56</v>
+        <v>1.97</v>
       </c>
       <c r="AC8">
-        <v>1.85</v>
+        <v>1.41</v>
       </c>
       <c r="AD8">
-        <v>3.41</v>
+        <v>3.38</v>
       </c>
       <c r="AE8">
+        <v>1.55</v>
+      </c>
+      <c r="AF8">
+        <v>9</v>
+      </c>
+      <c r="AG8">
+        <v>2.9</v>
+      </c>
+      <c r="AH8">
+        <v>1.09</v>
+      </c>
+      <c r="AI8">
+        <v>5.6</v>
+      </c>
+      <c r="AJ8">
+        <v>1.25</v>
+      </c>
+      <c r="AK8">
+        <v>3.5</v>
+      </c>
+      <c r="AL8">
+        <v>1.46</v>
+      </c>
+      <c r="AM8">
+        <v>2.45</v>
+      </c>
+      <c r="AN8">
+        <v>1.83</v>
+      </c>
+      <c r="AO8">
+        <v>1.98</v>
+      </c>
+      <c r="AP8">
         <v>2.3</v>
       </c>
-      <c r="AF8">
-        <v>7</v>
-      </c>
-      <c r="AG8">
-        <v>1.9</v>
-      </c>
-      <c r="AH8">
-        <v>1.27</v>
-      </c>
-      <c r="AI8">
-        <v>3.55</v>
-      </c>
-      <c r="AJ8">
-        <v>1.5</v>
-      </c>
-      <c r="AK8">
-        <v>2.48</v>
-      </c>
-      <c r="AL8">
-        <v>1.87</v>
-      </c>
-      <c r="AM8">
-        <v>1.87</v>
-      </c>
-      <c r="AN8">
-        <v>2.45</v>
-      </c>
-      <c r="AO8">
-        <v>1.5</v>
-      </c>
-      <c r="AP8">
-        <v>3.4</v>
-      </c>
       <c r="AQ8">
-        <v>1.29</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="9" spans="1:43">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2">
         <v>45319</v>
@@ -2085,94 +2085,94 @@
         <v>157</v>
       </c>
       <c r="G9">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H9">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="I9">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="J9">
-        <v>1.55</v>
+        <v>1.98</v>
       </c>
       <c r="K9">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="L9">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="N9">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="O9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="P9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Q9">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="R9">
-        <v>7</v>
+        <v>4.45</v>
       </c>
       <c r="S9">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="T9">
-        <v>2.97</v>
+        <v>2.2</v>
       </c>
       <c r="U9">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="V9">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="W9">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="X9">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="Y9">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="Z9">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="AA9">
-        <v>0.75</v>
+        <v>2.11</v>
       </c>
       <c r="AB9">
-        <v>1.97</v>
+        <v>1.62</v>
       </c>
       <c r="AC9">
         <v>1.41</v>
       </c>
       <c r="AD9">
-        <v>3.38</v>
+        <v>3.03</v>
       </c>
       <c r="AE9">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AF9">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG9">
-        <v>2.9</v>
+        <v>3.31</v>
       </c>
       <c r="AH9">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="AI9">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="AJ9">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AK9">
         <v>3.5</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2">
         <v>45319</v>
@@ -2216,126 +2216,126 @@
         <v>158</v>
       </c>
       <c r="G10">
+        <v>3.2</v>
+      </c>
+      <c r="H10">
+        <v>2.25</v>
+      </c>
+      <c r="I10">
+        <v>3.1</v>
+      </c>
+      <c r="J10">
+        <v>2.6</v>
+      </c>
+      <c r="K10">
+        <v>3.6</v>
+      </c>
+      <c r="L10">
+        <v>2.44</v>
+      </c>
+      <c r="M10">
+        <v>1.33</v>
+      </c>
+      <c r="N10">
+        <v>3.25</v>
+      </c>
+      <c r="O10">
+        <v>1.04</v>
+      </c>
+      <c r="P10">
+        <v>15.25</v>
+      </c>
+      <c r="Q10">
+        <v>1.18</v>
+      </c>
+      <c r="R10">
+        <v>4.1</v>
+      </c>
+      <c r="S10">
+        <v>1.58</v>
+      </c>
+      <c r="T10">
+        <v>2.24</v>
+      </c>
+      <c r="U10">
+        <v>1.57</v>
+      </c>
+      <c r="V10">
+        <v>2.25</v>
+      </c>
+      <c r="W10">
+        <v>1.55</v>
+      </c>
+      <c r="X10">
+        <v>1.29</v>
+      </c>
+      <c r="Y10">
+        <v>1.48</v>
+      </c>
+      <c r="Z10">
+        <v>1.4</v>
+      </c>
+      <c r="AA10">
+        <v>0.9</v>
+      </c>
+      <c r="AB10">
+        <v>1.54</v>
+      </c>
+      <c r="AC10">
+        <v>1.42</v>
+      </c>
+      <c r="AD10">
+        <v>2.96</v>
+      </c>
+      <c r="AE10">
+        <v>1.83</v>
+      </c>
+      <c r="AF10">
+        <v>8</v>
+      </c>
+      <c r="AG10">
+        <v>2.2</v>
+      </c>
+      <c r="AH10">
+        <v>1.23</v>
+      </c>
+      <c r="AI10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ10">
+        <v>1.44</v>
+      </c>
+      <c r="AK10">
         <v>2.5</v>
       </c>
-      <c r="H10">
-        <v>2.38</v>
-      </c>
-      <c r="I10">
-        <v>3.75</v>
-      </c>
-      <c r="J10">
-        <v>1.91</v>
-      </c>
-      <c r="K10">
-        <v>3.8</v>
-      </c>
-      <c r="L10">
-        <v>3.3</v>
-      </c>
-      <c r="M10">
-        <v>1.3</v>
-      </c>
-      <c r="N10">
-        <v>3.4</v>
-      </c>
-      <c r="O10">
-        <v>1.03</v>
-      </c>
-      <c r="P10">
-        <v>16</v>
-      </c>
-      <c r="Q10">
-        <v>1.15</v>
-      </c>
-      <c r="R10">
-        <v>4.45</v>
-      </c>
-      <c r="S10">
-        <v>1.47</v>
-      </c>
-      <c r="T10">
-        <v>2.32</v>
-      </c>
-      <c r="U10">
-        <v>1.53</v>
-      </c>
-      <c r="V10">
-        <v>2.38</v>
-      </c>
-      <c r="W10">
-        <v>1.31</v>
-      </c>
-      <c r="X10">
-        <v>1.26</v>
-      </c>
-      <c r="Y10">
-        <v>1.83</v>
-      </c>
-      <c r="Z10">
-        <v>2.22</v>
-      </c>
-      <c r="AA10">
-        <v>2.38</v>
-      </c>
-      <c r="AB10">
-        <v>1.62</v>
-      </c>
-      <c r="AC10">
-        <v>1.41</v>
-      </c>
-      <c r="AD10">
-        <v>3.03</v>
-      </c>
-      <c r="AE10">
-        <v>1.45</v>
-      </c>
-      <c r="AF10">
-        <v>9.5</v>
-      </c>
-      <c r="AG10">
-        <v>3.31</v>
-      </c>
-      <c r="AH10">
-        <v>1.12</v>
-      </c>
-      <c r="AI10">
-        <v>4.9</v>
-      </c>
-      <c r="AJ10">
-        <v>1.24</v>
-      </c>
-      <c r="AK10">
-        <v>3.5</v>
-      </c>
       <c r="AL10">
-        <v>1.46</v>
+        <v>1.8</v>
       </c>
       <c r="AM10">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="AN10">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="AO10">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="AP10">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="AQ10">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="11" spans="1:43">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2">
         <v>45319</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>19</v>
@@ -2347,129 +2347,129 @@
         <v>159</v>
       </c>
       <c r="G11">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="H11">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="I11">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>2.62</v>
+        <v>2.14</v>
       </c>
       <c r="K11">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L11">
-        <v>2.3</v>
+        <v>3.45</v>
       </c>
       <c r="M11">
+        <v>1.44</v>
+      </c>
+      <c r="N11">
+        <v>2.6</v>
+      </c>
+      <c r="O11">
+        <v>1.05</v>
+      </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
+      <c r="Q11">
         <v>1.33</v>
       </c>
-      <c r="N11">
-        <v>3.25</v>
-      </c>
-      <c r="O11">
-        <v>1.04</v>
-      </c>
-      <c r="P11">
-        <v>15.25</v>
-      </c>
-      <c r="Q11">
-        <v>1.18</v>
-      </c>
       <c r="R11">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>1.54</v>
+        <v>2.05</v>
       </c>
       <c r="T11">
-        <v>2.18</v>
+        <v>1.7</v>
       </c>
       <c r="U11">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="V11">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
+        <v>1.3</v>
+      </c>
+      <c r="X11">
+        <v>1.33</v>
+      </c>
+      <c r="Y11">
+        <v>1.62</v>
+      </c>
+      <c r="Z11">
+        <v>1.7</v>
+      </c>
+      <c r="AA11">
+        <v>1.4</v>
+      </c>
+      <c r="AB11">
+        <v>1.61</v>
+      </c>
+      <c r="AC11">
+        <v>1.19</v>
+      </c>
+      <c r="AD11">
+        <v>2.8</v>
+      </c>
+      <c r="AE11">
+        <v>1.62</v>
+      </c>
+      <c r="AF11">
+        <v>9.5</v>
+      </c>
+      <c r="AG11">
+        <v>2.61</v>
+      </c>
+      <c r="AH11">
+        <v>1.12</v>
+      </c>
+      <c r="AI11">
+        <v>4.9</v>
+      </c>
+      <c r="AJ11">
+        <v>1.27</v>
+      </c>
+      <c r="AK11">
+        <v>3.28</v>
+      </c>
+      <c r="AL11">
         <v>1.55</v>
       </c>
-      <c r="X11">
-        <v>1.29</v>
-      </c>
-      <c r="Y11">
-        <v>1.48</v>
-      </c>
-      <c r="Z11">
-        <v>1.22</v>
-      </c>
-      <c r="AA11">
-        <v>1</v>
-      </c>
-      <c r="AB11">
-        <v>1.54</v>
-      </c>
-      <c r="AC11">
-        <v>1.42</v>
-      </c>
-      <c r="AD11">
-        <v>2.96</v>
-      </c>
-      <c r="AE11">
-        <v>1.83</v>
-      </c>
-      <c r="AF11">
-        <v>8</v>
-      </c>
-      <c r="AG11">
-        <v>2.2</v>
-      </c>
-      <c r="AH11">
-        <v>1.23</v>
-      </c>
-      <c r="AI11">
-        <v>3.6</v>
-      </c>
-      <c r="AJ11">
-        <v>1.44</v>
-      </c>
-      <c r="AK11">
-        <v>2.5</v>
-      </c>
-      <c r="AL11">
+      <c r="AM11">
+        <v>2.41</v>
+      </c>
+      <c r="AN11">
+        <v>2</v>
+      </c>
+      <c r="AO11">
         <v>1.8</v>
       </c>
-      <c r="AM11">
-        <v>2</v>
-      </c>
-      <c r="AN11">
-        <v>2.3</v>
-      </c>
-      <c r="AO11">
-        <v>1.5</v>
-      </c>
       <c r="AP11">
-        <v>3.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>1.28</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2">
         <v>45319</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
         <v>98</v>
@@ -2478,115 +2478,115 @@
         <v>160</v>
       </c>
       <c r="G12">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H12">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="J12">
-        <v>2.18</v>
+        <v>2.39</v>
       </c>
       <c r="K12">
-        <v>3.18</v>
+        <v>3.65</v>
       </c>
       <c r="L12">
-        <v>3.23</v>
+        <v>2.8</v>
       </c>
       <c r="M12">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="N12">
-        <v>2.6</v>
+        <v>2.95</v>
       </c>
       <c r="O12">
         <v>1.05</v>
       </c>
       <c r="P12">
+        <v>13</v>
+      </c>
+      <c r="Q12">
+        <v>1.22</v>
+      </c>
+      <c r="R12">
+        <v>4.12</v>
+      </c>
+      <c r="S12">
+        <v>1.81</v>
+      </c>
+      <c r="T12">
+        <v>2.05</v>
+      </c>
+      <c r="U12">
+        <v>1.63</v>
+      </c>
+      <c r="V12">
+        <v>2.1</v>
+      </c>
+      <c r="W12">
+        <v>1.42</v>
+      </c>
+      <c r="X12">
+        <v>1.29</v>
+      </c>
+      <c r="Y12">
+        <v>1.55</v>
+      </c>
+      <c r="Z12">
+        <v>1.58</v>
+      </c>
+      <c r="AA12">
+        <v>0.82</v>
+      </c>
+      <c r="AB12">
+        <v>1.32</v>
+      </c>
+      <c r="AC12">
+        <v>1.14</v>
+      </c>
+      <c r="AD12">
+        <v>2.46</v>
+      </c>
+      <c r="AE12">
+        <v>1.8</v>
+      </c>
+      <c r="AF12">
         <v>8</v>
       </c>
-      <c r="Q12">
-        <v>1.33</v>
-      </c>
-      <c r="R12">
-        <v>3</v>
-      </c>
-      <c r="S12">
-        <v>2.04</v>
-      </c>
-      <c r="T12">
-        <v>1.64</v>
-      </c>
-      <c r="U12">
-        <v>1.85</v>
-      </c>
-      <c r="V12">
-        <v>1.85</v>
-      </c>
-      <c r="W12">
-        <v>1.3</v>
-      </c>
-      <c r="X12">
-        <v>1.33</v>
-      </c>
-      <c r="Y12">
-        <v>1.62</v>
-      </c>
-      <c r="Z12">
-        <v>1.89</v>
-      </c>
-      <c r="AA12">
-        <v>1.22</v>
-      </c>
-      <c r="AB12">
-        <v>1.61</v>
-      </c>
-      <c r="AC12">
-        <v>1.19</v>
-      </c>
-      <c r="AD12">
-        <v>2.8</v>
-      </c>
-      <c r="AE12">
-        <v>1.62</v>
-      </c>
-      <c r="AF12">
-        <v>9.5</v>
-      </c>
       <c r="AG12">
-        <v>2.61</v>
+        <v>2.38</v>
       </c>
       <c r="AH12">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="AI12">
-        <v>4.9</v>
+        <v>2.95</v>
       </c>
       <c r="AJ12">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
       <c r="AK12">
-        <v>3.28</v>
+        <v>2.12</v>
       </c>
       <c r="AL12">
-        <v>1.55</v>
+        <v>2.16</v>
       </c>
       <c r="AM12">
-        <v>2.41</v>
+        <v>1.65</v>
       </c>
       <c r="AN12">
-        <v>2</v>
+        <v>2.95</v>
       </c>
       <c r="AO12">
-        <v>1.8</v>
+        <v>1.37</v>
       </c>
       <c r="AP12">
-        <v>2.33</v>
+        <v>4.1</v>
       </c>
       <c r="AQ12">
-        <v>1.58</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2618,13 +2618,13 @@
         <v>2.75</v>
       </c>
       <c r="J13">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="K13">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L13">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="M13">
         <v>1.38</v>
@@ -2645,10 +2645,10 @@
         <v>3.82</v>
       </c>
       <c r="S13">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="T13">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="U13">
         <v>1.68</v>
@@ -2666,10 +2666,10 @@
         <v>1.38</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AA13">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AB13">
         <v>1.57</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2">
         <v>45319</v>
@@ -2731,7 +2731,7 @@
         <v>67</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
         <v>100</v>
@@ -2740,115 +2740,115 @@
         <v>162</v>
       </c>
       <c r="G14">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="H14">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="I14">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J14">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="K14">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L14">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="M14">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="N14">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="O14">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P14">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Q14">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="R14">
-        <v>4.12</v>
+        <v>4.13</v>
       </c>
       <c r="S14">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="T14">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U14">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V14">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W14">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="X14">
         <v>1.29</v>
       </c>
       <c r="Y14">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="Z14">
-        <v>1.45</v>
+        <v>0.83</v>
       </c>
       <c r="AA14">
-        <v>0.9</v>
+        <v>2.45</v>
       </c>
       <c r="AB14">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="AC14">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AD14">
-        <v>2.46</v>
+        <v>2.89</v>
       </c>
       <c r="AE14">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AF14">
         <v>8</v>
       </c>
       <c r="AG14">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="AH14">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="AI14">
-        <v>2.95</v>
+        <v>3.45</v>
       </c>
       <c r="AJ14">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="AK14">
-        <v>2.12</v>
+        <v>2.48</v>
       </c>
       <c r="AL14">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="AM14">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="AN14">
-        <v>2.95</v>
+        <v>2.2</v>
       </c>
       <c r="AO14">
-        <v>1.37</v>
+        <v>1.56</v>
       </c>
       <c r="AP14">
-        <v>4.1</v>
+        <v>2.85</v>
       </c>
       <c r="AQ14">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2871,115 +2871,115 @@
         <v>163</v>
       </c>
       <c r="G15">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="H15">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I15">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="J15">
-        <v>2.62</v>
+        <v>3.6</v>
       </c>
       <c r="K15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L15">
-        <v>2.38</v>
+        <v>1.97</v>
       </c>
       <c r="M15">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="N15">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="O15">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="P15">
-        <v>14.5</v>
+        <v>9.9</v>
       </c>
       <c r="Q15">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="R15">
-        <v>4.13</v>
+        <v>3.58</v>
       </c>
       <c r="S15">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T15">
+        <v>1.92</v>
+      </c>
+      <c r="U15">
+        <v>1.68</v>
+      </c>
+      <c r="V15">
+        <v>2.05</v>
+      </c>
+      <c r="W15">
+        <v>1.8</v>
+      </c>
+      <c r="X15">
+        <v>1.28</v>
+      </c>
+      <c r="Y15">
+        <v>1.27</v>
+      </c>
+      <c r="Z15">
+        <v>1.45</v>
+      </c>
+      <c r="AA15">
+        <v>1.64</v>
+      </c>
+      <c r="AB15">
+        <v>1.56</v>
+      </c>
+      <c r="AC15">
+        <v>1.85</v>
+      </c>
+      <c r="AD15">
+        <v>3.41</v>
+      </c>
+      <c r="AE15">
+        <v>2.3</v>
+      </c>
+      <c r="AF15">
+        <v>7</v>
+      </c>
+      <c r="AG15">
         <v>1.9</v>
       </c>
-      <c r="U15">
-        <v>1.62</v>
-      </c>
-      <c r="V15">
-        <v>2.2</v>
-      </c>
-      <c r="W15">
-        <v>1.53</v>
-      </c>
-      <c r="X15">
-        <v>1.29</v>
-      </c>
-      <c r="Y15">
-        <v>1.43</v>
-      </c>
-      <c r="Z15">
-        <v>0.91</v>
-      </c>
-      <c r="AA15">
-        <v>2.4</v>
-      </c>
-      <c r="AB15">
-        <v>1.51</v>
-      </c>
-      <c r="AC15">
-        <v>1.38</v>
-      </c>
-      <c r="AD15">
-        <v>2.89</v>
-      </c>
-      <c r="AE15">
-        <v>1.71</v>
-      </c>
-      <c r="AF15">
-        <v>8</v>
-      </c>
-      <c r="AG15">
-        <v>2.45</v>
-      </c>
       <c r="AH15">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AI15">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AJ15">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AK15">
         <v>2.48</v>
       </c>
       <c r="AL15">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="AM15">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AN15">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="AO15">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AP15">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -3011,13 +3011,13 @@
         <v>3.2</v>
       </c>
       <c r="J16">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="K16">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L16">
-        <v>2.3</v>
+        <v>2.49</v>
       </c>
       <c r="M16">
         <v>1.52</v>
@@ -3038,10 +3038,10 @@
         <v>2.65</v>
       </c>
       <c r="S16">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="T16">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U16">
         <v>1.95</v>
@@ -3059,10 +3059,10 @@
         <v>1.38</v>
       </c>
       <c r="Z16">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AA16">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AB16">
         <v>1.3</v>
@@ -3142,13 +3142,13 @@
         <v>3.75</v>
       </c>
       <c r="J17">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="K17">
+        <v>3.9</v>
+      </c>
+      <c r="L17">
         <v>4.2</v>
-      </c>
-      <c r="L17">
-        <v>4</v>
       </c>
       <c r="M17">
         <v>1.19</v>
@@ -3190,10 +3190,10 @@
         <v>2.02</v>
       </c>
       <c r="Z17">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AA17">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AB17">
         <v>2.09</v>
@@ -3273,13 +3273,13 @@
         <v>3.6</v>
       </c>
       <c r="J18">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="K18">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
         <v>1.33</v>
@@ -3321,10 +3321,10 @@
         <v>1.76</v>
       </c>
       <c r="Z18">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AA18">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AB18">
         <v>2.16</v>
@@ -3404,13 +3404,13 @@
         <v>6</v>
       </c>
       <c r="J19">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="K19">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="M19">
         <v>1.29</v>
@@ -3431,10 +3431,10 @@
         <v>5.6</v>
       </c>
       <c r="S19">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="T19">
-        <v>2.16</v>
+        <v>2.35</v>
       </c>
       <c r="U19">
         <v>1.75</v>
@@ -3452,10 +3452,10 @@
         <v>2.75</v>
       </c>
       <c r="Z19">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AA19">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AB19">
         <v>2.34</v>
@@ -3535,13 +3535,13 @@
         <v>4.5</v>
       </c>
       <c r="J20">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="K20">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="M20">
         <v>1.5</v>
@@ -3562,10 +3562,10 @@
         <v>2.8</v>
       </c>
       <c r="S20">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="T20">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U20">
         <v>2</v>
@@ -3583,10 +3583,10 @@
         <v>1.77</v>
       </c>
       <c r="Z20">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AA20">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AB20">
         <v>1.41</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2">
         <v>45319</v>
@@ -3648,7 +3648,7 @@
         <v>70</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
         <v>107</v>
@@ -3657,120 +3657,120 @@
         <v>169</v>
       </c>
       <c r="G21">
+        <v>2.15</v>
+      </c>
+      <c r="H21">
+        <v>2.1</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>1.64</v>
+      </c>
+      <c r="K21">
+        <v>3.75</v>
+      </c>
+      <c r="L21">
+        <v>5.8</v>
+      </c>
+      <c r="M21">
+        <v>1.5</v>
+      </c>
+      <c r="N21">
+        <v>2.5</v>
+      </c>
+      <c r="O21">
+        <v>1.08</v>
+      </c>
+      <c r="P21">
+        <v>7</v>
+      </c>
+      <c r="Q21">
+        <v>1.4</v>
+      </c>
+      <c r="R21">
         <v>2.75</v>
       </c>
-      <c r="H21">
-        <v>2.25</v>
-      </c>
-      <c r="I21">
-        <v>3.6</v>
-      </c>
-      <c r="J21">
+      <c r="S21">
         <v>2.15</v>
       </c>
-      <c r="K21">
-        <v>3.6</v>
-      </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
-      <c r="M21">
-        <v>1.33</v>
-      </c>
-      <c r="N21">
-        <v>3.25</v>
-      </c>
-      <c r="O21">
-        <v>1.02</v>
-      </c>
-      <c r="P21">
-        <v>12</v>
-      </c>
-      <c r="Q21">
+      <c r="T21">
+        <v>1.61</v>
+      </c>
+      <c r="U21">
+        <v>2.2</v>
+      </c>
+      <c r="V21">
+        <v>1.62</v>
+      </c>
+      <c r="W21">
+        <v>1.1</v>
+      </c>
+      <c r="X21">
+        <v>1.25</v>
+      </c>
+      <c r="Y21">
+        <v>2.38</v>
+      </c>
+      <c r="Z21">
+        <v>2.3</v>
+      </c>
+      <c r="AA21">
+        <v>1.1</v>
+      </c>
+      <c r="AB21">
+        <v>1.47</v>
+      </c>
+      <c r="AC21">
+        <v>1.34</v>
+      </c>
+      <c r="AD21">
+        <v>2.81</v>
+      </c>
+      <c r="AE21">
+        <v>1.53</v>
+      </c>
+      <c r="AF21">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG21">
+        <v>2.91</v>
+      </c>
+      <c r="AH21">
         <v>1.2</v>
       </c>
-      <c r="R21">
-        <v>4.3</v>
-      </c>
-      <c r="S21">
-        <v>1.73</v>
-      </c>
-      <c r="T21">
-        <v>2.05</v>
-      </c>
-      <c r="U21">
-        <v>1.62</v>
-      </c>
-      <c r="V21">
-        <v>2.2</v>
-      </c>
-      <c r="W21">
-        <v>1.38</v>
-      </c>
-      <c r="X21">
-        <v>1.32</v>
-      </c>
-      <c r="Y21">
+      <c r="AI21">
+        <v>3.86</v>
+      </c>
+      <c r="AJ21">
+        <v>1.39</v>
+      </c>
+      <c r="AK21">
+        <v>2.67</v>
+      </c>
+      <c r="AL21">
+        <v>1.83</v>
+      </c>
+      <c r="AM21">
+        <v>1.98</v>
+      </c>
+      <c r="AN21">
+        <v>2.13</v>
+      </c>
+      <c r="AO21">
         <v>1.7</v>
       </c>
-      <c r="Z21">
-        <v>1.3</v>
-      </c>
-      <c r="AA21">
-        <v>0.8</v>
-      </c>
-      <c r="AB21">
+      <c r="AP21">
+        <v>2.84</v>
+      </c>
+      <c r="AQ21">
         <v>1.35</v>
-      </c>
-      <c r="AC21">
-        <v>1.35</v>
-      </c>
-      <c r="AD21">
-        <v>2.7</v>
-      </c>
-      <c r="AE21">
-        <v>1.78</v>
-      </c>
-      <c r="AF21">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG21">
-        <v>2.39</v>
-      </c>
-      <c r="AH21">
-        <v>1.16</v>
-      </c>
-      <c r="AI21">
-        <v>4.3</v>
-      </c>
-      <c r="AJ21">
-        <v>1.35</v>
-      </c>
-      <c r="AK21">
-        <v>2.98</v>
-      </c>
-      <c r="AL21">
-        <v>1.66</v>
-      </c>
-      <c r="AM21">
-        <v>2.16</v>
-      </c>
-      <c r="AN21">
-        <v>2.04</v>
-      </c>
-      <c r="AO21">
-        <v>1.74</v>
-      </c>
-      <c r="AP21">
-        <v>2.57</v>
-      </c>
-      <c r="AQ21">
-        <v>1.42</v>
       </c>
     </row>
     <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2">
         <v>45319</v>
@@ -3779,7 +3779,7 @@
         <v>70</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
         <v>108</v>
@@ -3791,112 +3791,112 @@
         <v>3.1</v>
       </c>
       <c r="H22">
+        <v>2.05</v>
+      </c>
+      <c r="I22">
+        <v>3.75</v>
+      </c>
+      <c r="J22">
+        <v>2.3</v>
+      </c>
+      <c r="K22">
+        <v>3.23</v>
+      </c>
+      <c r="L22">
+        <v>2.9</v>
+      </c>
+      <c r="M22">
+        <v>1.44</v>
+      </c>
+      <c r="N22">
+        <v>2.63</v>
+      </c>
+      <c r="O22">
+        <v>1.08</v>
+      </c>
+      <c r="P22">
+        <v>7</v>
+      </c>
+      <c r="Q22">
+        <v>1.33</v>
+      </c>
+      <c r="R22">
+        <v>3.25</v>
+      </c>
+      <c r="S22">
         <v>2.1</v>
       </c>
-      <c r="I22">
-        <v>3.5</v>
-      </c>
-      <c r="J22">
-        <v>2.4</v>
-      </c>
-      <c r="K22">
-        <v>3.4</v>
-      </c>
-      <c r="L22">
-        <v>2.75</v>
-      </c>
-      <c r="M22">
-        <v>1.4</v>
-      </c>
-      <c r="N22">
-        <v>2.75</v>
-      </c>
-      <c r="O22">
-        <v>1.07</v>
-      </c>
-      <c r="P22">
-        <v>12.5</v>
-      </c>
-      <c r="Q22">
+      <c r="T22">
+        <v>1.65</v>
+      </c>
+      <c r="U22">
+        <v>1.83</v>
+      </c>
+      <c r="V22">
+        <v>1.83</v>
+      </c>
+      <c r="W22">
+        <v>1.33</v>
+      </c>
+      <c r="X22">
         <v>1.28</v>
       </c>
-      <c r="R22">
-        <v>3.3</v>
-      </c>
-      <c r="S22">
+      <c r="Y22">
+        <v>1.5</v>
+      </c>
+      <c r="Z22">
+        <v>1.64</v>
+      </c>
+      <c r="AA22">
+        <v>1.36</v>
+      </c>
+      <c r="AB22">
+        <v>1.31</v>
+      </c>
+      <c r="AC22">
+        <v>1.48</v>
+      </c>
+      <c r="AD22">
+        <v>2.79</v>
+      </c>
+      <c r="AE22">
         <v>2</v>
       </c>
-      <c r="T22">
-        <v>1.75</v>
-      </c>
-      <c r="U22">
-        <v>1.75</v>
-      </c>
-      <c r="V22">
-        <v>2</v>
-      </c>
-      <c r="W22">
-        <v>1.43</v>
-      </c>
-      <c r="X22">
-        <v>1.32</v>
-      </c>
-      <c r="Y22">
-        <v>1.57</v>
-      </c>
-      <c r="Z22">
-        <v>1.2</v>
-      </c>
-      <c r="AA22">
-        <v>0.2</v>
-      </c>
-      <c r="AB22">
-        <v>1.29</v>
-      </c>
-      <c r="AC22">
-        <v>1.19</v>
-      </c>
-      <c r="AD22">
-        <v>2.48</v>
-      </c>
-      <c r="AE22">
-        <v>1.89</v>
-      </c>
       <c r="AF22">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="AG22">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AH22">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AI22">
-        <v>3.42</v>
+        <v>2.79</v>
       </c>
       <c r="AJ22">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="AK22">
-        <v>2.44</v>
+        <v>2.08</v>
       </c>
       <c r="AL22">
-        <v>1.88</v>
+        <v>2.11</v>
       </c>
       <c r="AM22">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="AN22">
-        <v>2.35</v>
+        <v>2.84</v>
       </c>
       <c r="AO22">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="AP22">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="AQ22">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -3919,120 +3919,120 @@
         <v>171</v>
       </c>
       <c r="G23">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H23">
+        <v>1.95</v>
+      </c>
+      <c r="I23">
+        <v>3.4</v>
+      </c>
+      <c r="J23">
+        <v>2.85</v>
+      </c>
+      <c r="K23">
+        <v>3.1</v>
+      </c>
+      <c r="L23">
+        <v>2.7</v>
+      </c>
+      <c r="M23">
+        <v>1.53</v>
+      </c>
+      <c r="N23">
+        <v>2.38</v>
+      </c>
+      <c r="O23">
+        <v>1.05</v>
+      </c>
+      <c r="P23">
+        <v>6.9</v>
+      </c>
+      <c r="Q23">
+        <v>1.43</v>
+      </c>
+      <c r="R23">
+        <v>2.6</v>
+      </c>
+      <c r="S23">
+        <v>1.96</v>
+      </c>
+      <c r="T23">
+        <v>1.9</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>1.75</v>
+      </c>
+      <c r="W23">
+        <v>1.52</v>
+      </c>
+      <c r="X23">
+        <v>1.4</v>
+      </c>
+      <c r="Y23">
+        <v>1.43</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>0.9</v>
+      </c>
+      <c r="AB23">
+        <v>1.19</v>
+      </c>
+      <c r="AC23">
+        <v>1.01</v>
+      </c>
+      <c r="AD23">
         <v>2.2</v>
       </c>
-      <c r="I23">
-        <v>4.5</v>
-      </c>
-      <c r="J23">
-        <v>1.8</v>
-      </c>
-      <c r="K23">
-        <v>3.7</v>
-      </c>
-      <c r="L23">
-        <v>4</v>
-      </c>
-      <c r="M23">
-        <v>1.36</v>
-      </c>
-      <c r="N23">
-        <v>3</v>
-      </c>
-      <c r="O23">
-        <v>1.01</v>
-      </c>
-      <c r="P23">
-        <v>9.6</v>
-      </c>
-      <c r="Q23">
-        <v>1.25</v>
-      </c>
-      <c r="R23">
-        <v>3.52</v>
-      </c>
-      <c r="S23">
-        <v>1.9</v>
-      </c>
-      <c r="T23">
-        <v>1.77</v>
-      </c>
-      <c r="U23">
-        <v>1.8</v>
-      </c>
-      <c r="V23">
-        <v>1.95</v>
-      </c>
-      <c r="W23">
-        <v>1.23</v>
-      </c>
-      <c r="X23">
-        <v>1.27</v>
-      </c>
-      <c r="Y23">
-        <v>1.93</v>
-      </c>
-      <c r="Z23">
-        <v>1.88</v>
-      </c>
-      <c r="AA23">
-        <v>0.75</v>
-      </c>
-      <c r="AB23">
+      <c r="AE23">
+        <v>2.23</v>
+      </c>
+      <c r="AF23">
+        <v>7.5</v>
+      </c>
+      <c r="AG23">
+        <v>1.86</v>
+      </c>
+      <c r="AH23">
+        <v>1.32</v>
+      </c>
+      <c r="AI23">
+        <v>2.9</v>
+      </c>
+      <c r="AJ23">
         <v>1.58</v>
       </c>
-      <c r="AC23">
-        <v>1.18</v>
-      </c>
-      <c r="AD23">
-        <v>2.76</v>
-      </c>
-      <c r="AE23">
-        <v>1.73</v>
-      </c>
-      <c r="AF23">
-        <v>8</v>
-      </c>
-      <c r="AG23">
-        <v>2.43</v>
-      </c>
-      <c r="AH23">
-        <v>1.18</v>
-      </c>
-      <c r="AI23">
-        <v>4</v>
-      </c>
-      <c r="AJ23">
-        <v>1.33</v>
-      </c>
       <c r="AK23">
-        <v>2.85</v>
+        <v>2.18</v>
       </c>
       <c r="AL23">
-        <v>1.58</v>
+        <v>1.97</v>
       </c>
       <c r="AM23">
-        <v>2.17</v>
+        <v>1.72</v>
       </c>
       <c r="AN23">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="AO23">
-        <v>1.73</v>
+        <v>1.42</v>
       </c>
       <c r="AP23">
-        <v>2.45</v>
+        <v>3.35</v>
       </c>
       <c r="AQ23">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2">
         <v>45319</v>
@@ -4041,7 +4041,7 @@
         <v>70</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
         <v>110</v>
@@ -4050,46 +4050,46 @@
         <v>172</v>
       </c>
       <c r="G24">
-        <v>1.67</v>
+        <v>3.5</v>
       </c>
       <c r="H24">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="I24">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="J24">
-        <v>1.18</v>
+        <v>2.7</v>
       </c>
       <c r="K24">
-        <v>5.8</v>
+        <v>3.25</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="M24">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="N24">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O24">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P24">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="Q24">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="R24">
-        <v>4.75</v>
+        <v>2.78</v>
       </c>
       <c r="S24">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="T24">
-        <v>2.41</v>
+        <v>1.71</v>
       </c>
       <c r="U24">
         <v>1.95</v>
@@ -4098,67 +4098,67 @@
         <v>1.8</v>
       </c>
       <c r="W24">
+        <v>1.47</v>
+      </c>
+      <c r="X24">
+        <v>1.33</v>
+      </c>
+      <c r="Y24">
+        <v>1.44</v>
+      </c>
+      <c r="Z24">
+        <v>0.6</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1.42</v>
+      </c>
+      <c r="AC24">
         <v>1.06</v>
       </c>
-      <c r="X24">
-        <v>1.14</v>
-      </c>
-      <c r="Y24">
+      <c r="AD24">
+        <v>2.48</v>
+      </c>
+      <c r="AE24">
+        <v>1.79</v>
+      </c>
+      <c r="AF24">
+        <v>7</v>
+      </c>
+      <c r="AG24">
+        <v>2.4</v>
+      </c>
+      <c r="AH24">
+        <v>1.58</v>
+      </c>
+      <c r="AI24">
+        <v>2.17</v>
+      </c>
+      <c r="AJ24">
+        <v>2</v>
+      </c>
+      <c r="AK24">
+        <v>1.68</v>
+      </c>
+      <c r="AL24">
+        <v>2.63</v>
+      </c>
+      <c r="AM24">
+        <v>1.38</v>
+      </c>
+      <c r="AN24">
         <v>3.6</v>
       </c>
-      <c r="Z24">
-        <v>2.33</v>
-      </c>
-      <c r="AA24">
-        <v>0.44</v>
-      </c>
-      <c r="AB24">
-        <v>1.9</v>
-      </c>
-      <c r="AC24">
-        <v>1.4</v>
-      </c>
-      <c r="AD24">
-        <v>3.3</v>
-      </c>
-      <c r="AE24">
-        <v>1.11</v>
-      </c>
-      <c r="AF24">
-        <v>14</v>
-      </c>
-      <c r="AG24">
-        <v>8.85</v>
-      </c>
-      <c r="AH24">
-        <v>1.33</v>
-      </c>
-      <c r="AI24">
-        <v>2.93</v>
-      </c>
-      <c r="AJ24">
-        <v>1.62</v>
-      </c>
-      <c r="AK24">
-        <v>2.16</v>
-      </c>
-      <c r="AL24">
-        <v>2.06</v>
-      </c>
-      <c r="AM24">
-        <v>1.71</v>
-      </c>
-      <c r="AN24">
-        <v>2.72</v>
-      </c>
       <c r="AO24">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="AP24">
-        <v>3.74</v>
+        <v>5.2</v>
       </c>
       <c r="AQ24">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -4181,120 +4181,120 @@
         <v>173</v>
       </c>
       <c r="G25">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="H25">
+        <v>2.2</v>
+      </c>
+      <c r="I25">
+        <v>4.5</v>
+      </c>
+      <c r="J25">
+        <v>1.87</v>
+      </c>
+      <c r="K25">
+        <v>3.65</v>
+      </c>
+      <c r="L25">
+        <v>4.1</v>
+      </c>
+      <c r="M25">
+        <v>1.36</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>1.01</v>
+      </c>
+      <c r="P25">
+        <v>9.6</v>
+      </c>
+      <c r="Q25">
+        <v>1.25</v>
+      </c>
+      <c r="R25">
+        <v>3.52</v>
+      </c>
+      <c r="S25">
+        <v>1.91</v>
+      </c>
+      <c r="T25">
         <v>1.95</v>
       </c>
-      <c r="I25">
-        <v>3.4</v>
-      </c>
-      <c r="J25">
-        <v>2.75</v>
-      </c>
-      <c r="K25">
-        <v>3.2</v>
-      </c>
-      <c r="L25">
-        <v>2.5</v>
-      </c>
-      <c r="M25">
-        <v>1.53</v>
-      </c>
-      <c r="N25">
-        <v>2.38</v>
-      </c>
-      <c r="O25">
-        <v>1.05</v>
-      </c>
-      <c r="P25">
-        <v>6.9</v>
-      </c>
-      <c r="Q25">
-        <v>1.43</v>
-      </c>
-      <c r="R25">
-        <v>2.6</v>
-      </c>
-      <c r="S25">
-        <v>2.2</v>
-      </c>
-      <c r="T25">
-        <v>1.61</v>
-      </c>
       <c r="U25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>1.52</v>
+        <v>1.23</v>
       </c>
       <c r="X25">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="Y25">
-        <v>1.43</v>
+        <v>1.93</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>1.78</v>
       </c>
       <c r="AA25">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="AB25">
-        <v>1.19</v>
+        <v>1.58</v>
       </c>
       <c r="AC25">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="AD25">
-        <v>2.2</v>
+        <v>2.76</v>
       </c>
       <c r="AE25">
-        <v>2.23</v>
+        <v>1.73</v>
       </c>
       <c r="AF25">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG25">
-        <v>1.86</v>
+        <v>2.43</v>
       </c>
       <c r="AH25">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AI25">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="AJ25">
+        <v>1.33</v>
+      </c>
+      <c r="AK25">
+        <v>2.85</v>
+      </c>
+      <c r="AL25">
         <v>1.58</v>
       </c>
-      <c r="AK25">
-        <v>2.18</v>
-      </c>
-      <c r="AL25">
-        <v>1.97</v>
-      </c>
       <c r="AM25">
-        <v>1.72</v>
+        <v>2.17</v>
       </c>
       <c r="AN25">
-        <v>2.5</v>
+        <v>1.96</v>
       </c>
       <c r="AO25">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="AP25">
-        <v>3.35</v>
+        <v>2.45</v>
       </c>
       <c r="AQ25">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2">
         <v>45319</v>
@@ -4303,7 +4303,7 @@
         <v>70</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
         <v>112</v>
@@ -4315,117 +4315,117 @@
         <v>3.1</v>
       </c>
       <c r="H26">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I26">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J26">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="K26">
-        <v>3.23</v>
+        <v>3.35</v>
       </c>
       <c r="L26">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="N26">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O26">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P26">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="Q26">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="R26">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="S26">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="T26">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="U26">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="V26">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="X26">
+        <v>1.32</v>
+      </c>
+      <c r="Y26">
+        <v>1.57</v>
+      </c>
+      <c r="Z26">
+        <v>1.18</v>
+      </c>
+      <c r="AA26">
+        <v>0.27</v>
+      </c>
+      <c r="AB26">
+        <v>1.29</v>
+      </c>
+      <c r="AC26">
+        <v>1.19</v>
+      </c>
+      <c r="AD26">
+        <v>2.48</v>
+      </c>
+      <c r="AE26">
+        <v>1.89</v>
+      </c>
+      <c r="AF26">
+        <v>8.9</v>
+      </c>
+      <c r="AG26">
+        <v>2.24</v>
+      </c>
+      <c r="AH26">
+        <v>1.25</v>
+      </c>
+      <c r="AI26">
+        <v>3.42</v>
+      </c>
+      <c r="AJ26">
+        <v>1.52</v>
+      </c>
+      <c r="AK26">
+        <v>2.44</v>
+      </c>
+      <c r="AL26">
+        <v>1.88</v>
+      </c>
+      <c r="AM26">
+        <v>1.93</v>
+      </c>
+      <c r="AN26">
+        <v>2.35</v>
+      </c>
+      <c r="AO26">
+        <v>1.56</v>
+      </c>
+      <c r="AP26">
+        <v>3.2</v>
+      </c>
+      <c r="AQ26">
         <v>1.28</v>
-      </c>
-      <c r="Y26">
-        <v>1.5</v>
-      </c>
-      <c r="Z26">
-        <v>1.8</v>
-      </c>
-      <c r="AA26">
-        <v>1.2</v>
-      </c>
-      <c r="AB26">
-        <v>1.31</v>
-      </c>
-      <c r="AC26">
-        <v>1.48</v>
-      </c>
-      <c r="AD26">
-        <v>2.79</v>
-      </c>
-      <c r="AE26">
-        <v>2</v>
-      </c>
-      <c r="AF26">
-        <v>7.5</v>
-      </c>
-      <c r="AG26">
-        <v>2.05</v>
-      </c>
-      <c r="AH26">
-        <v>1.36</v>
-      </c>
-      <c r="AI26">
-        <v>2.79</v>
-      </c>
-      <c r="AJ26">
-        <v>1.67</v>
-      </c>
-      <c r="AK26">
-        <v>2.08</v>
-      </c>
-      <c r="AL26">
-        <v>2.11</v>
-      </c>
-      <c r="AM26">
-        <v>1.62</v>
-      </c>
-      <c r="AN26">
-        <v>2.84</v>
-      </c>
-      <c r="AO26">
-        <v>1.35</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2">
         <v>45319</v>
@@ -4434,7 +4434,7 @@
         <v>70</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
         <v>113</v>
@@ -4443,120 +4443,120 @@
         <v>175</v>
       </c>
       <c r="G27">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="H27">
+        <v>2.25</v>
+      </c>
+      <c r="I27">
+        <v>3.6</v>
+      </c>
+      <c r="J27">
+        <v>2.29</v>
+      </c>
+      <c r="K27">
+        <v>3.55</v>
+      </c>
+      <c r="L27">
+        <v>3.05</v>
+      </c>
+      <c r="M27">
+        <v>1.33</v>
+      </c>
+      <c r="N27">
+        <v>3.25</v>
+      </c>
+      <c r="O27">
+        <v>1.02</v>
+      </c>
+      <c r="P27">
+        <v>12</v>
+      </c>
+      <c r="Q27">
+        <v>1.2</v>
+      </c>
+      <c r="R27">
+        <v>4.3</v>
+      </c>
+      <c r="S27">
+        <v>1.73</v>
+      </c>
+      <c r="T27">
         <v>2.05</v>
       </c>
-      <c r="I27">
-        <v>3.4</v>
-      </c>
-      <c r="J27">
+      <c r="U27">
+        <v>1.62</v>
+      </c>
+      <c r="V27">
+        <v>2.2</v>
+      </c>
+      <c r="W27">
+        <v>1.38</v>
+      </c>
+      <c r="X27">
+        <v>1.32</v>
+      </c>
+      <c r="Y27">
+        <v>1.7</v>
+      </c>
+      <c r="Z27">
+        <v>1.45</v>
+      </c>
+      <c r="AA27">
+        <v>0.73</v>
+      </c>
+      <c r="AB27">
+        <v>1.35</v>
+      </c>
+      <c r="AC27">
+        <v>1.35</v>
+      </c>
+      <c r="AD27">
         <v>2.7</v>
       </c>
-      <c r="K27">
-        <v>3.25</v>
-      </c>
-      <c r="L27">
-        <v>2.5</v>
-      </c>
-      <c r="M27">
-        <v>1.5</v>
-      </c>
-      <c r="N27">
-        <v>2.5</v>
-      </c>
-      <c r="O27">
-        <v>1.04</v>
-      </c>
-      <c r="P27">
-        <v>7.5</v>
-      </c>
-      <c r="Q27">
-        <v>1.38</v>
-      </c>
-      <c r="R27">
-        <v>2.78</v>
-      </c>
-      <c r="S27">
-        <v>2.15</v>
-      </c>
-      <c r="T27">
-        <v>1.61</v>
-      </c>
-      <c r="U27">
-        <v>1.95</v>
-      </c>
-      <c r="V27">
-        <v>1.8</v>
-      </c>
-      <c r="W27">
-        <v>1.47</v>
-      </c>
-      <c r="X27">
-        <v>1.33</v>
-      </c>
-      <c r="Y27">
-        <v>1.44</v>
-      </c>
-      <c r="Z27">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AA27">
-        <v>1</v>
-      </c>
-      <c r="AB27">
+      <c r="AE27">
+        <v>1.78</v>
+      </c>
+      <c r="AF27">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG27">
+        <v>2.39</v>
+      </c>
+      <c r="AH27">
+        <v>1.16</v>
+      </c>
+      <c r="AI27">
+        <v>4.3</v>
+      </c>
+      <c r="AJ27">
+        <v>1.35</v>
+      </c>
+      <c r="AK27">
+        <v>2.98</v>
+      </c>
+      <c r="AL27">
+        <v>1.66</v>
+      </c>
+      <c r="AM27">
+        <v>2.16</v>
+      </c>
+      <c r="AN27">
+        <v>2.04</v>
+      </c>
+      <c r="AO27">
+        <v>1.74</v>
+      </c>
+      <c r="AP27">
+        <v>2.57</v>
+      </c>
+      <c r="AQ27">
         <v>1.42</v>
-      </c>
-      <c r="AC27">
-        <v>1.06</v>
-      </c>
-      <c r="AD27">
-        <v>2.48</v>
-      </c>
-      <c r="AE27">
-        <v>1.79</v>
-      </c>
-      <c r="AF27">
-        <v>7</v>
-      </c>
-      <c r="AG27">
-        <v>2.4</v>
-      </c>
-      <c r="AH27">
-        <v>1.58</v>
-      </c>
-      <c r="AI27">
-        <v>2.17</v>
-      </c>
-      <c r="AJ27">
-        <v>2</v>
-      </c>
-      <c r="AK27">
-        <v>1.68</v>
-      </c>
-      <c r="AL27">
-        <v>2.63</v>
-      </c>
-      <c r="AM27">
-        <v>1.38</v>
-      </c>
-      <c r="AN27">
-        <v>3.6</v>
-      </c>
-      <c r="AO27">
-        <v>1.21</v>
-      </c>
-      <c r="AP27">
-        <v>5.2</v>
-      </c>
-      <c r="AQ27">
-        <v>1.12</v>
       </c>
     </row>
     <row r="28" spans="1:43">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2">
         <v>45319</v>
@@ -4565,7 +4565,7 @@
         <v>70</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
         <v>114</v>
@@ -4574,115 +4574,115 @@
         <v>176</v>
       </c>
       <c r="G28">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="H28">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="J28">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="K28">
-        <v>3.87</v>
+        <v>5.8</v>
       </c>
       <c r="L28">
-        <v>6.26</v>
+        <v>11</v>
       </c>
       <c r="M28">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="N28">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O28">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="P28">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q28">
+        <v>1.15</v>
+      </c>
+      <c r="R28">
+        <v>4.75</v>
+      </c>
+      <c r="S28">
+        <v>1.53</v>
+      </c>
+      <c r="T28">
+        <v>2.3</v>
+      </c>
+      <c r="U28">
+        <v>1.95</v>
+      </c>
+      <c r="V28">
+        <v>1.8</v>
+      </c>
+      <c r="W28">
+        <v>1.06</v>
+      </c>
+      <c r="X28">
+        <v>1.14</v>
+      </c>
+      <c r="Y28">
+        <v>3.6</v>
+      </c>
+      <c r="Z28">
+        <v>2.4</v>
+      </c>
+      <c r="AA28">
+        <v>0.4</v>
+      </c>
+      <c r="AB28">
+        <v>1.9</v>
+      </c>
+      <c r="AC28">
         <v>1.4</v>
       </c>
-      <c r="R28">
-        <v>2.75</v>
-      </c>
-      <c r="S28">
-        <v>2.05</v>
-      </c>
-      <c r="T28">
-        <v>1.64</v>
-      </c>
-      <c r="U28">
-        <v>2.2</v>
-      </c>
-      <c r="V28">
+      <c r="AD28">
+        <v>3.3</v>
+      </c>
+      <c r="AE28">
+        <v>1.11</v>
+      </c>
+      <c r="AF28">
+        <v>14</v>
+      </c>
+      <c r="AG28">
+        <v>8.85</v>
+      </c>
+      <c r="AH28">
+        <v>1.33</v>
+      </c>
+      <c r="AI28">
+        <v>2.93</v>
+      </c>
+      <c r="AJ28">
         <v>1.62</v>
       </c>
-      <c r="W28">
-        <v>1.1</v>
-      </c>
-      <c r="X28">
-        <v>1.25</v>
-      </c>
-      <c r="Y28">
-        <v>2.38</v>
-      </c>
-      <c r="Z28">
-        <v>2.22</v>
-      </c>
-      <c r="AA28">
-        <v>1.22</v>
-      </c>
-      <c r="AB28">
-        <v>1.47</v>
-      </c>
-      <c r="AC28">
-        <v>1.34</v>
-      </c>
-      <c r="AD28">
-        <v>2.81</v>
-      </c>
-      <c r="AE28">
-        <v>1.53</v>
-      </c>
-      <c r="AF28">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG28">
-        <v>2.91</v>
-      </c>
-      <c r="AH28">
-        <v>1.2</v>
-      </c>
-      <c r="AI28">
-        <v>3.86</v>
-      </c>
-      <c r="AJ28">
-        <v>1.39</v>
-      </c>
       <c r="AK28">
-        <v>2.67</v>
+        <v>2.16</v>
       </c>
       <c r="AL28">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="AM28">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="AN28">
-        <v>2.13</v>
+        <v>2.72</v>
       </c>
       <c r="AO28">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AP28">
-        <v>2.84</v>
+        <v>3.74</v>
       </c>
       <c r="AQ28">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -4714,13 +4714,13 @@
         <v>5.5</v>
       </c>
       <c r="J29">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="M29">
         <v>1.36</v>
@@ -4741,10 +4741,10 @@
         <v>4</v>
       </c>
       <c r="S29">
-        <v>1.49</v>
+        <v>1.81</v>
       </c>
       <c r="T29">
-        <v>2.38</v>
+        <v>2.01</v>
       </c>
       <c r="U29">
         <v>1.91</v>
@@ -4762,10 +4762,10 @@
         <v>2.36</v>
       </c>
       <c r="Z29">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AA29">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB29">
         <v>1.43</v>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2">
         <v>45319</v>
@@ -4845,13 +4845,13 @@
         <v>1.8</v>
       </c>
       <c r="J30">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="K30">
         <v>5</v>
       </c>
       <c r="L30">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M30">
         <v>1.24</v>
@@ -4872,7 +4872,7 @@
         <v>5</v>
       </c>
       <c r="S30">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="T30">
         <v>2.35</v>
@@ -4976,13 +4976,13 @@
         <v>2.85</v>
       </c>
       <c r="J31">
+        <v>3.15</v>
+      </c>
+      <c r="K31">
         <v>3.1</v>
       </c>
-      <c r="K31">
-        <v>3.2</v>
-      </c>
       <c r="L31">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M31">
         <v>1.43</v>
@@ -5024,10 +5024,10 @@
         <v>1.3</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AA31">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AB31">
         <v>1.67</v>
@@ -5107,13 +5107,13 @@
         <v>4.5</v>
       </c>
       <c r="J32">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K32">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M32">
         <v>1.53</v>
@@ -5134,7 +5134,7 @@
         <v>2.71</v>
       </c>
       <c r="S32">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="T32">
         <v>1.53</v>
@@ -5155,10 +5155,10 @@
         <v>1.75</v>
       </c>
       <c r="Z32">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AA32">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AB32">
         <v>1.48</v>
@@ -5238,13 +5238,13 @@
         <v>3.6</v>
       </c>
       <c r="J33">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="K33">
+        <v>2.75</v>
+      </c>
+      <c r="L33">
         <v>3.1</v>
-      </c>
-      <c r="L33">
-        <v>3</v>
       </c>
       <c r="M33">
         <v>1.5</v>
@@ -5265,10 +5265,10 @@
         <v>2.7</v>
       </c>
       <c r="S33">
-        <v>2.11</v>
+        <v>2.3</v>
       </c>
       <c r="T33">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="U33">
         <v>1.93</v>
@@ -5286,10 +5286,10 @@
         <v>1.53</v>
       </c>
       <c r="Z33">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AA33">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AB33">
         <v>1.45</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="34" spans="1:43">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2">
         <v>45319</v>
@@ -5369,13 +5369,13 @@
         <v>2.38</v>
       </c>
       <c r="J34">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="K34">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L34">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M34">
         <v>1.44</v>
@@ -5396,10 +5396,10 @@
         <v>3.08</v>
       </c>
       <c r="S34">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T34">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="U34">
         <v>2.05</v>
@@ -5417,10 +5417,10 @@
         <v>1.18</v>
       </c>
       <c r="Z34">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AA34">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AB34">
         <v>1.22</v>
@@ -5500,13 +5500,13 @@
         <v>4</v>
       </c>
       <c r="J35">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K35">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="L35">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M35">
         <v>1.5</v>
@@ -5527,10 +5527,10 @@
         <v>2.77</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>2.35</v>
       </c>
       <c r="T35">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="U35">
         <v>2</v>
@@ -5548,10 +5548,10 @@
         <v>1.6</v>
       </c>
       <c r="Z35">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AA35">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AB35">
         <v>1.65</v>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="36" spans="1:43">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2">
         <v>45319</v>
@@ -5622,120 +5622,120 @@
         <v>184</v>
       </c>
       <c r="G36">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="J36">
-        <v>1.98</v>
+        <v>3.4</v>
       </c>
       <c r="K36">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="L36">
-        <v>3.17</v>
+        <v>1.85</v>
       </c>
       <c r="M36">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="N36">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O36">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P36">
-        <v>7.7</v>
+        <v>11.5</v>
       </c>
       <c r="Q36">
+        <v>1.22</v>
+      </c>
+      <c r="R36">
+        <v>4.1</v>
+      </c>
+      <c r="S36">
+        <v>1.75</v>
+      </c>
+      <c r="T36">
+        <v>1.95</v>
+      </c>
+      <c r="U36">
+        <v>1.62</v>
+      </c>
+      <c r="V36">
+        <v>2.18</v>
+      </c>
+      <c r="W36">
+        <v>1.81</v>
+      </c>
+      <c r="X36">
+        <v>1.27</v>
+      </c>
+      <c r="Y36">
+        <v>1.24</v>
+      </c>
+      <c r="Z36">
+        <v>1.56</v>
+      </c>
+      <c r="AA36">
+        <v>1.44</v>
+      </c>
+      <c r="AB36">
         <v>1.36</v>
       </c>
-      <c r="R36">
-        <v>2.8</v>
-      </c>
-      <c r="S36">
-        <v>2.07</v>
-      </c>
-      <c r="T36">
-        <v>1.65</v>
-      </c>
-      <c r="U36">
+      <c r="AC36">
+        <v>1.6</v>
+      </c>
+      <c r="AD36">
+        <v>2.96</v>
+      </c>
+      <c r="AE36">
+        <v>2.44</v>
+      </c>
+      <c r="AF36">
+        <v>8</v>
+      </c>
+      <c r="AG36">
+        <v>1.75</v>
+      </c>
+      <c r="AH36">
+        <v>1.2</v>
+      </c>
+      <c r="AI36">
+        <v>3.9</v>
+      </c>
+      <c r="AJ36">
+        <v>1.39</v>
+      </c>
+      <c r="AK36">
+        <v>2.65</v>
+      </c>
+      <c r="AL36">
+        <v>1.7</v>
+      </c>
+      <c r="AM36">
         <v>1.95</v>
       </c>
-      <c r="V36">
-        <v>1.8</v>
-      </c>
-      <c r="W36">
-        <v>1.3</v>
-      </c>
-      <c r="X36">
+      <c r="AN36">
+        <v>2.2</v>
+      </c>
+      <c r="AO36">
+        <v>1.55</v>
+      </c>
+      <c r="AP36">
+        <v>3</v>
+      </c>
+      <c r="AQ36">
         <v>1.32</v>
-      </c>
-      <c r="Y36">
-        <v>1.74</v>
-      </c>
-      <c r="Z36">
-        <v>1.3</v>
-      </c>
-      <c r="AA36">
-        <v>0.89</v>
-      </c>
-      <c r="AB36">
-        <v>1.21</v>
-      </c>
-      <c r="AC36">
-        <v>1.14</v>
-      </c>
-      <c r="AD36">
-        <v>2.35</v>
-      </c>
-      <c r="AE36">
-        <v>1.64</v>
-      </c>
-      <c r="AF36">
-        <v>7.5</v>
-      </c>
-      <c r="AG36">
-        <v>2.78</v>
-      </c>
-      <c r="AH36">
-        <v>1.61</v>
-      </c>
-      <c r="AI36">
-        <v>2.1</v>
-      </c>
-      <c r="AJ36">
-        <v>2.1</v>
-      </c>
-      <c r="AK36">
-        <v>1.6</v>
-      </c>
-      <c r="AL36">
-        <v>2.95</v>
-      </c>
-      <c r="AM36">
-        <v>1.33</v>
-      </c>
-      <c r="AN36">
-        <v>3.98</v>
-      </c>
-      <c r="AO36">
-        <v>1.19</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:43">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2">
         <v>45319</v>
@@ -5744,7 +5744,7 @@
         <v>74</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
         <v>123</v>
@@ -5753,120 +5753,120 @@
         <v>185</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J37">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="K37">
+        <v>3.5</v>
+      </c>
+      <c r="L37">
         <v>3.25</v>
       </c>
-      <c r="L37">
-        <v>3.2</v>
-      </c>
       <c r="M37">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="S37">
+        <v>1.6</v>
+      </c>
+      <c r="T37">
         <v>2.2</v>
       </c>
-      <c r="T37">
-        <v>1.61</v>
-      </c>
       <c r="U37">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="Z37">
-        <v>1.38</v>
+        <v>2.11</v>
       </c>
       <c r="AA37">
-        <v>1.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB37">
-        <v>1.17</v>
+        <v>1.7</v>
       </c>
       <c r="AC37">
-        <v>1.15</v>
+        <v>1.51</v>
       </c>
       <c r="AD37">
-        <v>2.32</v>
+        <v>3.21</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI37">
-        <v>0</v>
+        <v>4.85</v>
       </c>
       <c r="AJ37">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AK37">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AL37">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AM37">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP37">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="38" spans="1:43">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2">
         <v>45319</v>
@@ -5884,115 +5884,115 @@
         <v>186</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38">
         <v>1.83</v>
       </c>
       <c r="K38">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="S38">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Z38">
-        <v>1.11</v>
+        <v>2.3</v>
       </c>
       <c r="AA38">
-        <v>0.78</v>
+        <v>1.2</v>
       </c>
       <c r="AB38">
-        <v>0.98</v>
+        <v>1.52</v>
       </c>
       <c r="AC38">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="AD38">
-        <v>1.99</v>
+        <v>2.67</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI38">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="AJ38">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AL38">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AM38">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="39" spans="1:43">
@@ -6015,120 +6015,120 @@
         <v>187</v>
       </c>
       <c r="G39">
-        <v>2.65</v>
+        <v>2.1</v>
       </c>
       <c r="H39">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>1.5</v>
+      </c>
+      <c r="K39">
+        <v>3.85</v>
+      </c>
+      <c r="L39">
+        <v>5</v>
+      </c>
+      <c r="M39">
+        <v>1.3</v>
+      </c>
+      <c r="N39">
+        <v>3.2</v>
+      </c>
+      <c r="O39">
+        <v>1.04</v>
+      </c>
+      <c r="P39">
+        <v>10</v>
+      </c>
+      <c r="Q39">
+        <v>1.22</v>
+      </c>
+      <c r="R39">
         <v>4</v>
       </c>
-      <c r="J39">
-        <v>2.01</v>
-      </c>
-      <c r="K39">
-        <v>3.33</v>
-      </c>
-      <c r="L39">
-        <v>3.46</v>
-      </c>
-      <c r="M39">
-        <v>1.41</v>
-      </c>
-      <c r="N39">
-        <v>2.7</v>
-      </c>
-      <c r="O39">
-        <v>1.07</v>
-      </c>
-      <c r="P39">
-        <v>7.5</v>
-      </c>
-      <c r="Q39">
-        <v>1.33</v>
-      </c>
-      <c r="R39">
-        <v>3.2</v>
-      </c>
       <c r="S39">
-        <v>1.94</v>
+        <v>1.7</v>
       </c>
       <c r="T39">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39">
+        <v>1.11</v>
+      </c>
+      <c r="X39">
+        <v>1.22</v>
+      </c>
+      <c r="Y39">
+        <v>2.45</v>
+      </c>
+      <c r="Z39">
+        <v>1.4</v>
+      </c>
+      <c r="AA39">
+        <v>0.44</v>
+      </c>
+      <c r="AB39">
+        <v>1.31</v>
+      </c>
+      <c r="AC39">
+        <v>1.26</v>
+      </c>
+      <c r="AD39">
+        <v>2.57</v>
+      </c>
+      <c r="AE39">
+        <v>1.28</v>
+      </c>
+      <c r="AF39">
+        <v>10.75</v>
+      </c>
+      <c r="AG39">
+        <v>4.33</v>
+      </c>
+      <c r="AH39">
+        <v>1.18</v>
+      </c>
+      <c r="AI39">
+        <v>4.05</v>
+      </c>
+      <c r="AJ39">
+        <v>1.36</v>
+      </c>
+      <c r="AK39">
+        <v>2.79</v>
+      </c>
+      <c r="AL39">
+        <v>1.85</v>
+      </c>
+      <c r="AM39">
         <v>1.95</v>
       </c>
-      <c r="W39">
-        <v>1.25</v>
-      </c>
-      <c r="X39">
-        <v>1.3</v>
-      </c>
-      <c r="Y39">
-        <v>1.75</v>
-      </c>
-      <c r="Z39">
-        <v>2.22</v>
-      </c>
-      <c r="AA39">
-        <v>1.33</v>
-      </c>
-      <c r="AB39">
-        <v>1.52</v>
-      </c>
-      <c r="AC39">
-        <v>1.15</v>
-      </c>
-      <c r="AD39">
+      <c r="AN39">
+        <v>2.08</v>
+      </c>
+      <c r="AO39">
+        <v>1.67</v>
+      </c>
+      <c r="AP39">
         <v>2.67</v>
       </c>
-      <c r="AE39">
-        <v>1.67</v>
-      </c>
-      <c r="AF39">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG39">
-        <v>2.51</v>
-      </c>
-      <c r="AH39">
-        <v>1.15</v>
-      </c>
-      <c r="AI39">
-        <v>4.55</v>
-      </c>
-      <c r="AJ39">
-        <v>1.3</v>
-      </c>
-      <c r="AK39">
-        <v>3.08</v>
-      </c>
-      <c r="AL39">
-        <v>1.65</v>
-      </c>
-      <c r="AM39">
-        <v>2.25</v>
-      </c>
-      <c r="AN39">
-        <v>1.88</v>
-      </c>
-      <c r="AO39">
-        <v>1.93</v>
-      </c>
-      <c r="AP39">
-        <v>2.48</v>
-      </c>
       <c r="AQ39">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="40" spans="1:43">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2">
         <v>45319</v>
@@ -6146,120 +6146,120 @@
         <v>188</v>
       </c>
       <c r="G40">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="H40">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="I40">
         <v>4</v>
       </c>
       <c r="J40">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="K40">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="L40">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="M40">
+        <v>1.5</v>
+      </c>
+      <c r="N40">
+        <v>2.5</v>
+      </c>
+      <c r="O40">
+        <v>1.04</v>
+      </c>
+      <c r="P40">
+        <v>7.7</v>
+      </c>
+      <c r="Q40">
+        <v>1.36</v>
+      </c>
+      <c r="R40">
+        <v>2.8</v>
+      </c>
+      <c r="S40">
+        <v>2.15</v>
+      </c>
+      <c r="T40">
+        <v>1.62</v>
+      </c>
+      <c r="U40">
+        <v>1.95</v>
+      </c>
+      <c r="V40">
+        <v>1.8</v>
+      </c>
+      <c r="W40">
         <v>1.3</v>
       </c>
-      <c r="N40">
-        <v>3.25</v>
-      </c>
-      <c r="O40">
-        <v>1.03</v>
-      </c>
-      <c r="P40">
-        <v>11</v>
-      </c>
-      <c r="Q40">
-        <v>1.2</v>
-      </c>
-      <c r="R40">
-        <v>4.33</v>
-      </c>
-      <c r="S40">
-        <v>1.62</v>
-      </c>
-      <c r="T40">
-        <v>2.14</v>
-      </c>
-      <c r="U40">
-        <v>1.55</v>
-      </c>
-      <c r="V40">
+      <c r="X40">
+        <v>1.32</v>
+      </c>
+      <c r="Y40">
+        <v>1.74</v>
+      </c>
+      <c r="Z40">
+        <v>1.45</v>
+      </c>
+      <c r="AA40">
+        <v>0.8</v>
+      </c>
+      <c r="AB40">
+        <v>1.21</v>
+      </c>
+      <c r="AC40">
+        <v>1.14</v>
+      </c>
+      <c r="AD40">
         <v>2.35</v>
       </c>
-      <c r="W40">
-        <v>1.28</v>
-      </c>
-      <c r="X40">
-        <v>1.2</v>
-      </c>
-      <c r="Y40">
-        <v>1.83</v>
-      </c>
-      <c r="Z40">
-        <v>2.11</v>
-      </c>
-      <c r="AA40">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AB40">
-        <v>1.7</v>
-      </c>
-      <c r="AC40">
-        <v>1.51</v>
-      </c>
-      <c r="AD40">
-        <v>3.21</v>
-      </c>
       <c r="AE40">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="AF40">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AG40">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="AH40">
+        <v>1.61</v>
+      </c>
+      <c r="AI40">
+        <v>2.1</v>
+      </c>
+      <c r="AJ40">
+        <v>2.1</v>
+      </c>
+      <c r="AK40">
+        <v>1.6</v>
+      </c>
+      <c r="AL40">
+        <v>2.95</v>
+      </c>
+      <c r="AM40">
+        <v>1.33</v>
+      </c>
+      <c r="AN40">
+        <v>3.98</v>
+      </c>
+      <c r="AO40">
+        <v>1.19</v>
+      </c>
+      <c r="AP40">
+        <v>5.4</v>
+      </c>
+      <c r="AQ40">
         <v>1.13</v>
-      </c>
-      <c r="AI40">
-        <v>4.85</v>
-      </c>
-      <c r="AJ40">
-        <v>1.24</v>
-      </c>
-      <c r="AK40">
-        <v>3.5</v>
-      </c>
-      <c r="AL40">
-        <v>1.46</v>
-      </c>
-      <c r="AM40">
-        <v>2.45</v>
-      </c>
-      <c r="AN40">
-        <v>1.8</v>
-      </c>
-      <c r="AO40">
-        <v>2</v>
-      </c>
-      <c r="AP40">
-        <v>2.3</v>
-      </c>
-      <c r="AQ40">
-        <v>1.51</v>
       </c>
     </row>
     <row r="41" spans="1:43">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B41" s="2">
         <v>45319</v>
@@ -6268,7 +6268,7 @@
         <v>74</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
         <v>127</v>
@@ -6277,120 +6277,120 @@
         <v>189</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="K41">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L41">
-        <v>1.91</v>
+        <v>3.85</v>
       </c>
       <c r="M41">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="U41">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>1.56</v>
+        <v>1.11</v>
       </c>
       <c r="AA41">
-        <v>1.44</v>
+        <v>0.78</v>
       </c>
       <c r="AB41">
-        <v>1.36</v>
+        <v>0.98</v>
       </c>
       <c r="AC41">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="AD41">
-        <v>2.96</v>
+        <v>1.99</v>
       </c>
       <c r="AE41">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="AF41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG41">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AH41">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AI41">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="AJ41">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AK41">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AL41">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AM41">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AN41">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AO41">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AP41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ41">
-        <v>1.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:43">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2">
         <v>45319</v>
@@ -6408,115 +6408,115 @@
         <v>190</v>
       </c>
       <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>2.15</v>
+      </c>
+      <c r="K42">
+        <v>3.15</v>
+      </c>
+      <c r="L42">
+        <v>3.25</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
         <v>2.1</v>
       </c>
-      <c r="H42">
-        <v>2.3</v>
-      </c>
-      <c r="I42">
-        <v>5</v>
-      </c>
-      <c r="J42">
-        <v>1.49</v>
-      </c>
-      <c r="K42">
-        <v>4.19</v>
-      </c>
-      <c r="L42">
-        <v>5.6</v>
-      </c>
-      <c r="M42">
-        <v>1.3</v>
-      </c>
-      <c r="N42">
-        <v>3.2</v>
-      </c>
-      <c r="O42">
-        <v>1.04</v>
-      </c>
-      <c r="P42">
-        <v>10</v>
-      </c>
-      <c r="Q42">
-        <v>1.22</v>
-      </c>
-      <c r="R42">
-        <v>4</v>
-      </c>
-      <c r="S42">
-        <v>1.67</v>
-      </c>
       <c r="T42">
-        <v>1.99</v>
+        <v>1.65</v>
       </c>
       <c r="U42">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>1.38</v>
+      </c>
+      <c r="AA42">
         <v>1.11</v>
       </c>
-      <c r="X42">
-        <v>1.22</v>
-      </c>
-      <c r="Y42">
-        <v>2.45</v>
-      </c>
-      <c r="Z42">
-        <v>1.22</v>
-      </c>
-      <c r="AA42">
-        <v>0.5</v>
-      </c>
       <c r="AB42">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AC42">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AD42">
-        <v>2.57</v>
+        <v>2.32</v>
       </c>
       <c r="AE42">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AF42">
-        <v>10.75</v>
+        <v>0</v>
       </c>
       <c r="AG42">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="AH42">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AI42">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="AJ42">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AK42">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="AL42">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AM42">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AN42">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AO42">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="AQ42">
-        <v>1.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:43">
@@ -6548,13 +6548,13 @@
         <v>2.75</v>
       </c>
       <c r="J43">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K43">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L43">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M43">
         <v>1.36</v>
@@ -6578,7 +6578,7 @@
         <v>1.7</v>
       </c>
       <c r="T43">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U43">
         <v>1.67</v>
@@ -6596,10 +6596,10 @@
         <v>1.34</v>
       </c>
       <c r="Z43">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AA43">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AB43">
         <v>1.42</v>
@@ -6679,10 +6679,10 @@
         <v>10.27</v>
       </c>
       <c r="J44">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="K44">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="L44">
         <v>13</v>
@@ -6709,7 +6709,7 @@
         <v>1.45</v>
       </c>
       <c r="T44">
-        <v>2.51</v>
+        <v>2.55</v>
       </c>
       <c r="U44">
         <v>2.18</v>
@@ -6810,10 +6810,10 @@
         <v>2.75</v>
       </c>
       <c r="J45">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K45">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L45">
         <v>2</v>
@@ -6837,10 +6837,10 @@
         <v>3.3</v>
       </c>
       <c r="S45">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="T45">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="U45">
         <v>1.8</v>
@@ -6944,10 +6944,10 @@
         <v>1.36</v>
       </c>
       <c r="K46">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="L46">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="M46">
         <v>1.22</v>
@@ -6968,10 +6968,10 @@
         <v>5.65</v>
       </c>
       <c r="S46">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="T46">
-        <v>2.31</v>
+        <v>2.55</v>
       </c>
       <c r="U46">
         <v>1.67</v>
@@ -7045,7 +7045,7 @@
     </row>
     <row r="47" spans="1:43">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="2">
         <v>45319</v>
@@ -7203,13 +7203,13 @@
         <v>4</v>
       </c>
       <c r="J48">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="K48">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L48">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="M48">
         <v>1.5</v>
@@ -7230,10 +7230,10 @@
         <v>2.77</v>
       </c>
       <c r="S48">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T48">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U48">
         <v>1.95</v>
@@ -7307,7 +7307,7 @@
     </row>
     <row r="49" spans="1:43">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B49" s="2">
         <v>45319</v>
@@ -7316,7 +7316,7 @@
         <v>81</v>
       </c>
       <c r="D49">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E49" t="s">
         <v>135</v>
@@ -7325,120 +7325,120 @@
         <v>197</v>
       </c>
       <c r="G49">
-        <v>3.4</v>
+        <v>1.62</v>
       </c>
       <c r="H49">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="I49">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="J49">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="K49">
+        <v>6.25</v>
+      </c>
+      <c r="L49">
+        <v>11</v>
+      </c>
+      <c r="M49">
+        <v>1.29</v>
+      </c>
+      <c r="N49">
         <v>3.5</v>
       </c>
-      <c r="L49">
-        <v>2.15</v>
-      </c>
-      <c r="M49">
-        <v>1.36</v>
-      </c>
-      <c r="N49">
-        <v>3</v>
-      </c>
       <c r="O49">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="P49">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Q49">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="R49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S49">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="T49">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="V49">
-        <v>2.14</v>
+        <v>1.62</v>
       </c>
       <c r="W49">
-        <v>1.67</v>
+        <v>1.04</v>
       </c>
       <c r="X49">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="Y49">
-        <v>1.28</v>
+        <v>4.2</v>
       </c>
       <c r="Z49">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AA49">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB49">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="AC49">
-        <v>1.78</v>
+        <v>0.99</v>
       </c>
       <c r="AD49">
-        <v>3.38</v>
+        <v>2.75</v>
       </c>
       <c r="AE49">
-        <v>2.6</v>
+        <v>1.18</v>
       </c>
       <c r="AF49">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AG49">
-        <v>1.74</v>
+        <v>6.59</v>
       </c>
       <c r="AH49">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="AI49">
-        <v>3.3</v>
+        <v>2.37</v>
       </c>
       <c r="AJ49">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AK49">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="AL49">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="AM49">
-        <v>1.8</v>
+        <v>1.42</v>
       </c>
       <c r="AN49">
-        <v>2.63</v>
+        <v>3.6</v>
       </c>
       <c r="AO49">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="AP49">
-        <v>3.65</v>
+        <v>4.33</v>
       </c>
       <c r="AQ49">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="50" spans="1:43">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2">
         <v>45319</v>
@@ -7447,7 +7447,7 @@
         <v>81</v>
       </c>
       <c r="D50">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s">
         <v>136</v>
@@ -7456,120 +7456,120 @@
         <v>198</v>
       </c>
       <c r="G50">
+        <v>2.7</v>
+      </c>
+      <c r="H50">
+        <v>1.95</v>
+      </c>
+      <c r="I50">
+        <v>4.2</v>
+      </c>
+      <c r="J50">
+        <v>2.45</v>
+      </c>
+      <c r="K50">
+        <v>2.9</v>
+      </c>
+      <c r="L50">
         <v>2.75</v>
       </c>
-      <c r="H50">
-        <v>2.05</v>
-      </c>
-      <c r="I50">
-        <v>4.33</v>
-      </c>
-      <c r="J50">
-        <v>1.95</v>
-      </c>
-      <c r="K50">
-        <v>3.4</v>
-      </c>
-      <c r="L50">
-        <v>3.7</v>
-      </c>
       <c r="M50">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="N50">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="O50">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="P50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q50">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="R50">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="S50">
         <v>2.2</v>
       </c>
       <c r="T50">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W50">
         <v>1.25</v>
       </c>
       <c r="X50">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="Y50">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="Z50">
-        <v>0.91</v>
+        <v>2.27</v>
       </c>
       <c r="AA50">
-        <v>1.11</v>
+        <v>0.55</v>
       </c>
       <c r="AB50">
-        <v>1.81</v>
+        <v>1.3</v>
       </c>
       <c r="AC50">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="AD50">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="AE50">
-        <v>1.54</v>
+        <v>2.2</v>
       </c>
       <c r="AF50">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG50">
-        <v>2.95</v>
+        <v>1.91</v>
       </c>
       <c r="AH50">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AI50">
-        <v>3.35</v>
+        <v>2.7</v>
       </c>
       <c r="AJ50">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="AK50">
-        <v>2.43</v>
+        <v>1.95</v>
       </c>
       <c r="AL50">
-        <v>1.79</v>
+        <v>2.2</v>
       </c>
       <c r="AM50">
-        <v>1.89</v>
+        <v>1.55</v>
       </c>
       <c r="AN50">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="AO50">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
       <c r="AP50">
-        <v>2.9</v>
+        <v>4.35</v>
       </c>
       <c r="AQ50">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="51" spans="1:43">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2">
         <v>45319</v>
@@ -7578,7 +7578,7 @@
         <v>81</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
         <v>137</v>
@@ -7587,120 +7587,120 @@
         <v>199</v>
       </c>
       <c r="G51">
-        <v>1.62</v>
+        <v>3.4</v>
       </c>
       <c r="H51">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="I51">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="J51">
-        <v>1.14</v>
+        <v>3.1</v>
       </c>
       <c r="K51">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>2.1</v>
       </c>
       <c r="M51">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="N51">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O51">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P51">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Q51">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="R51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S51">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="T51">
+        <v>1.95</v>
+      </c>
+      <c r="U51">
+        <v>1.69</v>
+      </c>
+      <c r="V51">
+        <v>2.14</v>
+      </c>
+      <c r="W51">
+        <v>1.67</v>
+      </c>
+      <c r="X51">
+        <v>1.3</v>
+      </c>
+      <c r="Y51">
+        <v>1.28</v>
+      </c>
+      <c r="Z51">
+        <v>2.6</v>
+      </c>
+      <c r="AA51">
         <v>2.3</v>
       </c>
-      <c r="U51">
-        <v>2.2</v>
-      </c>
-      <c r="V51">
-        <v>1.62</v>
-      </c>
-      <c r="W51">
-        <v>1.04</v>
-      </c>
-      <c r="X51">
-        <v>1.11</v>
-      </c>
-      <c r="Y51">
-        <v>4.2</v>
-      </c>
-      <c r="Z51">
+      <c r="AB51">
+        <v>1.6</v>
+      </c>
+      <c r="AC51">
+        <v>1.78</v>
+      </c>
+      <c r="AD51">
+        <v>3.38</v>
+      </c>
+      <c r="AE51">
+        <v>2.6</v>
+      </c>
+      <c r="AF51">
+        <v>7</v>
+      </c>
+      <c r="AG51">
+        <v>1.74</v>
+      </c>
+      <c r="AH51">
+        <v>1.3</v>
+      </c>
+      <c r="AI51">
+        <v>3.3</v>
+      </c>
+      <c r="AJ51">
+        <v>1.56</v>
+      </c>
+      <c r="AK51">
+        <v>2.33</v>
+      </c>
+      <c r="AL51">
         <v>2</v>
       </c>
-      <c r="AA51">
-        <v>0.4</v>
-      </c>
-      <c r="AB51">
-        <v>1.76</v>
-      </c>
-      <c r="AC51">
-        <v>0.99</v>
-      </c>
-      <c r="AD51">
-        <v>2.75</v>
-      </c>
-      <c r="AE51">
-        <v>1.18</v>
-      </c>
-      <c r="AF51">
-        <v>11</v>
-      </c>
-      <c r="AG51">
-        <v>6.59</v>
-      </c>
-      <c r="AH51">
-        <v>1.49</v>
-      </c>
-      <c r="AI51">
-        <v>2.37</v>
-      </c>
-      <c r="AJ51">
-        <v>2</v>
-      </c>
-      <c r="AK51">
+      <c r="AM51">
         <v>1.8</v>
       </c>
-      <c r="AL51">
-        <v>2.55</v>
-      </c>
-      <c r="AM51">
-        <v>1.42</v>
-      </c>
       <c r="AN51">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="AO51">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="AP51">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="AQ51">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="52" spans="1:43">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2">
         <v>45319</v>
@@ -7709,7 +7709,7 @@
         <v>81</v>
       </c>
       <c r="D52">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E52" t="s">
         <v>138</v>
@@ -7718,115 +7718,115 @@
         <v>200</v>
       </c>
       <c r="G52">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H52">
+        <v>2.05</v>
+      </c>
+      <c r="I52">
+        <v>4.33</v>
+      </c>
+      <c r="J52">
         <v>1.95</v>
       </c>
-      <c r="I52">
-        <v>4.2</v>
-      </c>
-      <c r="J52">
-        <v>2.3</v>
-      </c>
       <c r="K52">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="L52">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M52">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="N52">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="O52">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="P52">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q52">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R52">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="S52">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="T52">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W52">
         <v>1.25</v>
       </c>
       <c r="X52">
+        <v>1.31</v>
+      </c>
+      <c r="Y52">
+        <v>1.77</v>
+      </c>
+      <c r="Z52">
+        <v>0.91</v>
+      </c>
+      <c r="AA52">
+        <v>1.11</v>
+      </c>
+      <c r="AB52">
+        <v>1.81</v>
+      </c>
+      <c r="AC52">
+        <v>1.24</v>
+      </c>
+      <c r="AD52">
+        <v>3.05</v>
+      </c>
+      <c r="AE52">
+        <v>1.54</v>
+      </c>
+      <c r="AF52">
+        <v>8.5</v>
+      </c>
+      <c r="AG52">
+        <v>2.95</v>
+      </c>
+      <c r="AH52">
+        <v>1.24</v>
+      </c>
+      <c r="AI52">
+        <v>3.35</v>
+      </c>
+      <c r="AJ52">
+        <v>1.46</v>
+      </c>
+      <c r="AK52">
+        <v>2.43</v>
+      </c>
+      <c r="AL52">
+        <v>1.79</v>
+      </c>
+      <c r="AM52">
+        <v>1.89</v>
+      </c>
+      <c r="AN52">
+        <v>2.25</v>
+      </c>
+      <c r="AO52">
+        <v>1.54</v>
+      </c>
+      <c r="AP52">
+        <v>2.9</v>
+      </c>
+      <c r="AQ52">
         <v>1.3</v>
-      </c>
-      <c r="Y52">
-        <v>1.7</v>
-      </c>
-      <c r="Z52">
-        <v>2.27</v>
-      </c>
-      <c r="AA52">
-        <v>0.55</v>
-      </c>
-      <c r="AB52">
-        <v>1.3</v>
-      </c>
-      <c r="AC52">
-        <v>1.45</v>
-      </c>
-      <c r="AD52">
-        <v>2.75</v>
-      </c>
-      <c r="AE52">
-        <v>2.2</v>
-      </c>
-      <c r="AF52">
-        <v>7.5</v>
-      </c>
-      <c r="AG52">
-        <v>1.91</v>
-      </c>
-      <c r="AH52">
-        <v>1.38</v>
-      </c>
-      <c r="AI52">
-        <v>2.7</v>
-      </c>
-      <c r="AJ52">
-        <v>1.7</v>
-      </c>
-      <c r="AK52">
-        <v>1.95</v>
-      </c>
-      <c r="AL52">
-        <v>2.2</v>
-      </c>
-      <c r="AM52">
-        <v>1.55</v>
-      </c>
-      <c r="AN52">
-        <v>3.1</v>
-      </c>
-      <c r="AO52">
-        <v>1.3</v>
-      </c>
-      <c r="AP52">
-        <v>4.35</v>
-      </c>
-      <c r="AQ52">
-        <v>1.19</v>
       </c>
     </row>
     <row r="53" spans="1:43">
@@ -7858,13 +7858,13 @@
         <v>3.1</v>
       </c>
       <c r="J53">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="K53">
         <v>3</v>
       </c>
       <c r="L53">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="M53">
         <v>1.43</v>
@@ -7989,13 +7989,13 @@
         <v>4</v>
       </c>
       <c r="J54">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="K54">
-        <v>3.46</v>
+        <v>3.2</v>
       </c>
       <c r="L54">
-        <v>3.77</v>
+        <v>3.35</v>
       </c>
       <c r="M54">
         <v>1.4</v>
@@ -8016,10 +8016,10 @@
         <v>3.5</v>
       </c>
       <c r="S54">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="U54">
         <v>1.7</v>
@@ -8120,13 +8120,13 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K55">
         <v>4.6</v>
       </c>
       <c r="L55">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -8147,10 +8147,10 @@
         <v>0</v>
       </c>
       <c r="S55">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T55">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -8224,7 +8224,7 @@
     </row>
     <row r="56" spans="1:43">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B56" s="2">
         <v>45319</v>
@@ -8251,13 +8251,13 @@
         <v>4.75</v>
       </c>
       <c r="J56">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="K56">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L56">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M56">
         <v>1.36</v>
@@ -8278,10 +8278,10 @@
         <v>3.75</v>
       </c>
       <c r="S56">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="T56">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="U56">
         <v>1.89</v>
@@ -8355,7 +8355,7 @@
     </row>
     <row r="57" spans="1:43">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>45319</v>
@@ -8382,13 +8382,13 @@
         <v>3.75</v>
       </c>
       <c r="J57">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K57">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M57">
         <v>1.44</v>
@@ -8409,10 +8409,10 @@
         <v>3.25</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T57">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="U57">
         <v>1.8</v>
@@ -8478,15 +8478,15 @@
         <v>1.3</v>
       </c>
       <c r="AP57">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AQ57">
-        <v>0</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="58" spans="1:43">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B58" s="2">
         <v>45319</v>
@@ -8495,7 +8495,7 @@
         <v>85</v>
       </c>
       <c r="D58">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E58" t="s">
         <v>144</v>
@@ -8504,46 +8504,46 @@
         <v>206</v>
       </c>
       <c r="G58">
+        <v>4.5</v>
+      </c>
+      <c r="H58">
+        <v>2.2</v>
+      </c>
+      <c r="I58">
+        <v>2.5</v>
+      </c>
+      <c r="J58">
+        <v>3.65</v>
+      </c>
+      <c r="K58">
+        <v>3.65</v>
+      </c>
+      <c r="L58">
         <v>1.91</v>
       </c>
-      <c r="H58">
-        <v>2.6</v>
-      </c>
-      <c r="I58">
-        <v>6.5</v>
-      </c>
-      <c r="J58">
-        <v>1.36</v>
-      </c>
-      <c r="K58">
-        <v>5</v>
-      </c>
-      <c r="L58">
-        <v>7</v>
-      </c>
       <c r="M58">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="N58">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="O58">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="P58">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="Q58">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="R58">
-        <v>5</v>
+        <v>3.38</v>
       </c>
       <c r="S58">
-        <v>1.43</v>
+        <v>1.88</v>
       </c>
       <c r="T58">
-        <v>2.56</v>
+        <v>1.88</v>
       </c>
       <c r="U58">
         <v>1.8</v>
@@ -8552,72 +8552,72 @@
         <v>1.95</v>
       </c>
       <c r="W58">
-        <v>1.08</v>
+        <v>1.83</v>
       </c>
       <c r="X58">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="Y58">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="Z58">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="AA58">
-        <v>1.78</v>
+        <v>2.6</v>
       </c>
       <c r="AB58">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="AC58">
+        <v>1.5</v>
+      </c>
+      <c r="AD58">
+        <v>3.05</v>
+      </c>
+      <c r="AE58">
+        <v>2.36</v>
+      </c>
+      <c r="AF58">
+        <v>8.5</v>
+      </c>
+      <c r="AG58">
+        <v>1.83</v>
+      </c>
+      <c r="AH58">
         <v>1.4</v>
       </c>
-      <c r="AD58">
-        <v>3.21</v>
-      </c>
-      <c r="AE58">
-        <v>1.63</v>
-      </c>
-      <c r="AF58">
-        <v>7.5</v>
-      </c>
-      <c r="AG58">
-        <v>2.65</v>
-      </c>
-      <c r="AH58">
-        <v>1.26</v>
-      </c>
       <c r="AI58">
-        <v>3.2</v>
+        <v>2.77</v>
       </c>
       <c r="AJ58">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="AK58">
-        <v>2.35</v>
+        <v>2.03</v>
       </c>
       <c r="AL58">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="AM58">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="AN58">
-        <v>2.33</v>
+        <v>2.93</v>
       </c>
       <c r="AO58">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="AQ58">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="59" spans="1:43">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B59" s="2">
         <v>45319</v>
@@ -8626,7 +8626,7 @@
         <v>85</v>
       </c>
       <c r="D59">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E59" t="s">
         <v>145</v>
@@ -8635,46 +8635,46 @@
         <v>207</v>
       </c>
       <c r="G59">
-        <v>4.5</v>
+        <v>1.91</v>
       </c>
       <c r="H59">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="I59">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="J59">
-        <v>3.9</v>
+        <v>1.33</v>
       </c>
       <c r="K59">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="L59">
-        <v>1.83</v>
+        <v>7</v>
       </c>
       <c r="M59">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="N59">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="O59">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="P59">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="Q59">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="R59">
-        <v>3.38</v>
+        <v>5</v>
       </c>
       <c r="S59">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="T59">
-        <v>1.81</v>
+        <v>2.4</v>
       </c>
       <c r="U59">
         <v>1.8</v>
@@ -8683,72 +8683,72 @@
         <v>1.95</v>
       </c>
       <c r="W59">
-        <v>1.83</v>
+        <v>1.08</v>
       </c>
       <c r="X59">
+        <v>1.14</v>
+      </c>
+      <c r="Y59">
+        <v>3</v>
+      </c>
+      <c r="Z59">
+        <v>2.44</v>
+      </c>
+      <c r="AA59">
+        <v>1.78</v>
+      </c>
+      <c r="AB59">
+        <v>1.81</v>
+      </c>
+      <c r="AC59">
+        <v>1.4</v>
+      </c>
+      <c r="AD59">
+        <v>3.21</v>
+      </c>
+      <c r="AE59">
+        <v>1.63</v>
+      </c>
+      <c r="AF59">
+        <v>7.5</v>
+      </c>
+      <c r="AG59">
+        <v>2.65</v>
+      </c>
+      <c r="AH59">
+        <v>1.26</v>
+      </c>
+      <c r="AI59">
+        <v>3.2</v>
+      </c>
+      <c r="AJ59">
+        <v>1.49</v>
+      </c>
+      <c r="AK59">
+        <v>2.35</v>
+      </c>
+      <c r="AL59">
+        <v>1.85</v>
+      </c>
+      <c r="AM59">
+        <v>1.84</v>
+      </c>
+      <c r="AN59">
+        <v>2.33</v>
+      </c>
+      <c r="AO59">
+        <v>1.5</v>
+      </c>
+      <c r="AP59">
+        <v>3.05</v>
+      </c>
+      <c r="AQ59">
         <v>1.29</v>
-      </c>
-      <c r="Y59">
-        <v>1.25</v>
-      </c>
-      <c r="Z59">
-        <v>2</v>
-      </c>
-      <c r="AA59">
-        <v>2.6</v>
-      </c>
-      <c r="AB59">
-        <v>1.55</v>
-      </c>
-      <c r="AC59">
-        <v>1.5</v>
-      </c>
-      <c r="AD59">
-        <v>3.05</v>
-      </c>
-      <c r="AE59">
-        <v>2.36</v>
-      </c>
-      <c r="AF59">
-        <v>8.5</v>
-      </c>
-      <c r="AG59">
-        <v>1.83</v>
-      </c>
-      <c r="AH59">
-        <v>1.4</v>
-      </c>
-      <c r="AI59">
-        <v>2.77</v>
-      </c>
-      <c r="AJ59">
-        <v>1.76</v>
-      </c>
-      <c r="AK59">
-        <v>2.03</v>
-      </c>
-      <c r="AL59">
-        <v>2.2</v>
-      </c>
-      <c r="AM59">
-        <v>1.64</v>
-      </c>
-      <c r="AN59">
-        <v>2.93</v>
-      </c>
-      <c r="AO59">
-        <v>1.33</v>
-      </c>
-      <c r="AP59">
-        <v>4.2</v>
-      </c>
-      <c r="AQ59">
-        <v>1.17</v>
       </c>
     </row>
     <row r="60" spans="1:43">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B60" s="2">
         <v>45319</v>
@@ -8757,7 +8757,7 @@
         <v>86</v>
       </c>
       <c r="D60">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E60" t="s">
         <v>146</v>
@@ -8766,120 +8766,120 @@
         <v>208</v>
       </c>
       <c r="G60">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="H60">
+        <v>2.3</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+      <c r="J60">
+        <v>1.5</v>
+      </c>
+      <c r="K60">
+        <v>4.33</v>
+      </c>
+      <c r="L60">
+        <v>6</v>
+      </c>
+      <c r="M60">
+        <v>1.36</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60">
+        <v>1.04</v>
+      </c>
+      <c r="P60">
+        <v>10</v>
+      </c>
+      <c r="Q60">
+        <v>1.25</v>
+      </c>
+      <c r="R60">
+        <v>3.9</v>
+      </c>
+      <c r="S60">
+        <v>1.8</v>
+      </c>
+      <c r="T60">
         <v>2</v>
       </c>
-      <c r="I60">
-        <v>5</v>
-      </c>
-      <c r="J60">
-        <v>1.83</v>
-      </c>
-      <c r="K60">
-        <v>3.25</v>
-      </c>
-      <c r="L60">
-        <v>4.2</v>
-      </c>
-      <c r="M60">
-        <v>1.53</v>
-      </c>
-      <c r="N60">
-        <v>2.38</v>
-      </c>
-      <c r="O60">
+      <c r="U60">
+        <v>1.95</v>
+      </c>
+      <c r="V60">
+        <v>1.8</v>
+      </c>
+      <c r="W60">
+        <v>1.11</v>
+      </c>
+      <c r="X60">
+        <v>1.17</v>
+      </c>
+      <c r="Y60">
+        <v>2.55</v>
+      </c>
+      <c r="Z60">
+        <v>2.8</v>
+      </c>
+      <c r="AA60">
         <v>1.09</v>
       </c>
-      <c r="P60">
-        <v>7</v>
-      </c>
-      <c r="Q60">
-        <v>1.45</v>
-      </c>
-      <c r="R60">
-        <v>2.65</v>
-      </c>
-      <c r="S60">
-        <v>2.22</v>
-      </c>
-      <c r="T60">
-        <v>1.52</v>
-      </c>
-      <c r="U60">
-        <v>2.1</v>
-      </c>
-      <c r="V60">
-        <v>1.67</v>
-      </c>
-      <c r="W60">
-        <v>1.17</v>
-      </c>
-      <c r="X60">
+      <c r="AB60">
+        <v>1.64</v>
+      </c>
+      <c r="AC60">
+        <v>1.03</v>
+      </c>
+      <c r="AD60">
+        <v>2.67</v>
+      </c>
+      <c r="AE60">
+        <v>1.42</v>
+      </c>
+      <c r="AF60">
+        <v>8.5</v>
+      </c>
+      <c r="AG60">
+        <v>3.55</v>
+      </c>
+      <c r="AH60">
+        <v>1.27</v>
+      </c>
+      <c r="AI60">
+        <v>3.15</v>
+      </c>
+      <c r="AJ60">
+        <v>1.5</v>
+      </c>
+      <c r="AK60">
+        <v>2.3</v>
+      </c>
+      <c r="AL60">
+        <v>1.87</v>
+      </c>
+      <c r="AM60">
+        <v>1.82</v>
+      </c>
+      <c r="AN60">
+        <v>2.35</v>
+      </c>
+      <c r="AO60">
+        <v>1.49</v>
+      </c>
+      <c r="AP60">
+        <v>3.1</v>
+      </c>
+      <c r="AQ60">
         <v>1.28</v>
-      </c>
-      <c r="Y60">
-        <v>1.87</v>
-      </c>
-      <c r="Z60">
-        <v>2.09</v>
-      </c>
-      <c r="AA60">
-        <v>1.36</v>
-      </c>
-      <c r="AB60">
-        <v>1.52</v>
-      </c>
-      <c r="AC60">
-        <v>0.97</v>
-      </c>
-      <c r="AD60">
-        <v>2.49</v>
-      </c>
-      <c r="AE60">
-        <v>1.64</v>
-      </c>
-      <c r="AF60">
-        <v>8</v>
-      </c>
-      <c r="AG60">
-        <v>2.77</v>
-      </c>
-      <c r="AH60">
-        <v>1.38</v>
-      </c>
-      <c r="AI60">
-        <v>2.7</v>
-      </c>
-      <c r="AJ60">
-        <v>1.7</v>
-      </c>
-      <c r="AK60">
-        <v>1.95</v>
-      </c>
-      <c r="AL60">
-        <v>2.2</v>
-      </c>
-      <c r="AM60">
-        <v>1.55</v>
-      </c>
-      <c r="AN60">
-        <v>3.1</v>
-      </c>
-      <c r="AO60">
-        <v>1.3</v>
-      </c>
-      <c r="AP60">
-        <v>4.5</v>
-      </c>
-      <c r="AQ60">
-        <v>1.18</v>
       </c>
     </row>
     <row r="61" spans="1:43">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B61" s="2">
         <v>45319</v>
@@ -8888,7 +8888,7 @@
         <v>86</v>
       </c>
       <c r="D61">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E61" t="s">
         <v>147</v>
@@ -8897,115 +8897,115 @@
         <v>209</v>
       </c>
       <c r="G61">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="H61">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J61">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="K61">
-        <v>4.4</v>
+        <v>3.05</v>
       </c>
       <c r="L61">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="M61">
+        <v>1.53</v>
+      </c>
+      <c r="N61">
+        <v>2.38</v>
+      </c>
+      <c r="O61">
+        <v>1.09</v>
+      </c>
+      <c r="P61">
+        <v>7</v>
+      </c>
+      <c r="Q61">
+        <v>1.45</v>
+      </c>
+      <c r="R61">
+        <v>2.65</v>
+      </c>
+      <c r="S61">
+        <v>2.35</v>
+      </c>
+      <c r="T61">
+        <v>1.53</v>
+      </c>
+      <c r="U61">
+        <v>2.1</v>
+      </c>
+      <c r="V61">
+        <v>1.67</v>
+      </c>
+      <c r="W61">
+        <v>1.17</v>
+      </c>
+      <c r="X61">
+        <v>1.28</v>
+      </c>
+      <c r="Y61">
+        <v>1.87</v>
+      </c>
+      <c r="Z61">
+        <v>2.09</v>
+      </c>
+      <c r="AA61">
         <v>1.36</v>
       </c>
-      <c r="N61">
-        <v>3</v>
-      </c>
-      <c r="O61">
-        <v>1.04</v>
-      </c>
-      <c r="P61">
-        <v>10</v>
-      </c>
-      <c r="Q61">
-        <v>1.25</v>
-      </c>
-      <c r="R61">
-        <v>3.9</v>
-      </c>
-      <c r="S61">
+      <c r="AB61">
+        <v>1.52</v>
+      </c>
+      <c r="AC61">
+        <v>0.97</v>
+      </c>
+      <c r="AD61">
+        <v>2.49</v>
+      </c>
+      <c r="AE61">
+        <v>1.64</v>
+      </c>
+      <c r="AF61">
+        <v>8</v>
+      </c>
+      <c r="AG61">
+        <v>2.77</v>
+      </c>
+      <c r="AH61">
+        <v>1.38</v>
+      </c>
+      <c r="AI61">
+        <v>2.7</v>
+      </c>
+      <c r="AJ61">
         <v>1.7</v>
       </c>
-      <c r="T61">
+      <c r="AK61">
         <v>1.95</v>
       </c>
-      <c r="U61">
-        <v>1.95</v>
-      </c>
-      <c r="V61">
-        <v>1.8</v>
-      </c>
-      <c r="W61">
-        <v>1.11</v>
-      </c>
-      <c r="X61">
-        <v>1.17</v>
-      </c>
-      <c r="Y61">
-        <v>2.55</v>
-      </c>
-      <c r="Z61">
-        <v>2.8</v>
-      </c>
-      <c r="AA61">
-        <v>1.09</v>
-      </c>
-      <c r="AB61">
-        <v>1.64</v>
-      </c>
-      <c r="AC61">
-        <v>1.03</v>
-      </c>
-      <c r="AD61">
-        <v>2.67</v>
-      </c>
-      <c r="AE61">
-        <v>1.42</v>
-      </c>
-      <c r="AF61">
-        <v>8.5</v>
-      </c>
-      <c r="AG61">
-        <v>3.55</v>
-      </c>
-      <c r="AH61">
-        <v>1.27</v>
-      </c>
-      <c r="AI61">
-        <v>3.15</v>
-      </c>
-      <c r="AJ61">
-        <v>1.5</v>
-      </c>
-      <c r="AK61">
-        <v>2.3</v>
-      </c>
       <c r="AL61">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="AM61">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AN61">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="AO61">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="AP61">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="AQ61">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="62" spans="1:43">
@@ -9037,10 +9037,10 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K62">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L62">
         <v>3.4</v>
@@ -9064,10 +9064,10 @@
         <v>0</v>
       </c>
       <c r="S62">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T62">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U62">
         <v>0</v>
@@ -9168,13 +9168,13 @@
         <v>0</v>
       </c>
       <c r="J63">
+        <v>3.25</v>
+      </c>
+      <c r="K63">
         <v>3.2</v>
       </c>
-      <c r="K63">
-        <v>3.4</v>
-      </c>
       <c r="L63">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -9195,10 +9195,10 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U63">
         <v>0</v>
